--- a/artfynd/A 53495-2020.xlsx
+++ b/artfynd/A 53495-2020.xlsx
@@ -15386,7 +15386,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111785220</v>
+        <v>111785216</v>
       </c>
       <c r="B127" t="n">
         <v>78578</v>
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>577929.7593229595</v>
+        <v>577619.0624429594</v>
       </c>
       <c r="R127" t="n">
-        <v>6944625.642482976</v>
+        <v>6944938.738972194</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15498,7 +15498,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111785221</v>
+        <v>111785209</v>
       </c>
       <c r="B128" t="n">
         <v>78578</v>
@@ -15538,10 +15538,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>577882.1692875527</v>
+        <v>577708.845606568</v>
       </c>
       <c r="R128" t="n">
-        <v>6944590.915173424</v>
+        <v>6945178.823951898</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15610,7 +15610,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111785212</v>
+        <v>111785226</v>
       </c>
       <c r="B129" t="n">
         <v>78578</v>
@@ -15650,10 +15650,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>577594.6139770675</v>
+        <v>577680.815564253</v>
       </c>
       <c r="R129" t="n">
-        <v>6945057.386468799</v>
+        <v>6944566.386431335</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15722,10 +15722,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111785219</v>
+        <v>111785246</v>
       </c>
       <c r="B130" t="n">
-        <v>78578</v>
+        <v>73634</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15734,25 +15734,25 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>6458</v>
+        <v>6426</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -15762,10 +15762,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>577815.6496847487</v>
+        <v>577818.8902223237</v>
       </c>
       <c r="R130" t="n">
-        <v>6944812.162249871</v>
+        <v>6944791.983443609</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15834,7 +15834,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111785211</v>
+        <v>111785208</v>
       </c>
       <c r="B131" t="n">
         <v>78578</v>
@@ -15874,10 +15874,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>577681.525001083</v>
+        <v>577539.8790421919</v>
       </c>
       <c r="R131" t="n">
-        <v>6945125.248796649</v>
+        <v>6945032.627663832</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15946,10 +15946,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111785246</v>
+        <v>111785225</v>
       </c>
       <c r="B132" t="n">
-        <v>73634</v>
+        <v>78578</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15958,25 +15958,25 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>6426</v>
+        <v>6458</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>577818.8902223237</v>
+        <v>577742.0418335226</v>
       </c>
       <c r="R132" t="n">
-        <v>6944791.983443609</v>
+        <v>6944530.994174051</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -16058,10 +16058,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111785193</v>
+        <v>111785210</v>
       </c>
       <c r="B133" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -16070,25 +16070,25 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -16098,10 +16098,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>577575.9394238007</v>
+        <v>577699.3262563417</v>
       </c>
       <c r="R133" t="n">
-        <v>6944851.186223409</v>
+        <v>6945152.363841761</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -16170,10 +16170,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111785237</v>
+        <v>111785219</v>
       </c>
       <c r="B134" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -16182,25 +16182,25 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -16210,10 +16210,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>577541.6974019273</v>
+        <v>577815.6496847487</v>
       </c>
       <c r="R134" t="n">
-        <v>6945053.384041801</v>
+        <v>6944812.162249871</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -16282,10 +16282,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111785241</v>
+        <v>111785224</v>
       </c>
       <c r="B135" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -16294,25 +16294,25 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -16322,10 +16322,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>577823.0208926643</v>
+        <v>577789.1149903627</v>
       </c>
       <c r="R135" t="n">
-        <v>6944675.151490607</v>
+        <v>6944587.805691725</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16394,7 +16394,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111785196</v>
+        <v>111785195</v>
       </c>
       <c r="B136" t="n">
         <v>78605</v>
@@ -16434,10 +16434,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>577807.1996835115</v>
+        <v>577817.9552042313</v>
       </c>
       <c r="R136" t="n">
-        <v>6944602.962691978</v>
+        <v>6944616.105901928</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16506,10 +16506,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111785216</v>
+        <v>111785243</v>
       </c>
       <c r="B137" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16518,25 +16518,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -16546,10 +16546,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>577619.0624429594</v>
+        <v>577759.6338390541</v>
       </c>
       <c r="R137" t="n">
-        <v>6944938.738972194</v>
+        <v>6944547.520700022</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16618,10 +16618,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111785195</v>
+        <v>111785241</v>
       </c>
       <c r="B138" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16630,25 +16630,25 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -16658,10 +16658,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>577817.9552042313</v>
+        <v>577823.0208926643</v>
       </c>
       <c r="R138" t="n">
-        <v>6944616.105901928</v>
+        <v>6944675.151490607</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16730,7 +16730,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111785213</v>
+        <v>111785220</v>
       </c>
       <c r="B139" t="n">
         <v>78578</v>
@@ -16770,10 +16770,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>577597.0534766318</v>
+        <v>577929.7593229595</v>
       </c>
       <c r="R139" t="n">
-        <v>6945012.333558927</v>
+        <v>6944625.642482976</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16842,10 +16842,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111785240</v>
+        <v>111785248</v>
       </c>
       <c r="B140" t="n">
-        <v>96348</v>
+        <v>89423</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16854,25 +16854,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16882,10 +16882,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>577827.3226169772</v>
+        <v>577835.1553672029</v>
       </c>
       <c r="R140" t="n">
-        <v>6944747.067874849</v>
+        <v>6944747.252110518</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111785226</v>
+        <v>111785211</v>
       </c>
       <c r="B141" t="n">
         <v>78578</v>
@@ -16994,10 +16994,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>577680.815564253</v>
+        <v>577681.525001083</v>
       </c>
       <c r="R141" t="n">
-        <v>6944566.386431335</v>
+        <v>6945125.248796649</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -17066,7 +17066,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111785222</v>
+        <v>111785227</v>
       </c>
       <c r="B142" t="n">
         <v>78578</v>
@@ -17106,10 +17106,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>577817.9552042313</v>
+        <v>577609.3004002962</v>
       </c>
       <c r="R142" t="n">
-        <v>6944616.105901928</v>
+        <v>6944686.704950654</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17178,10 +17178,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111785194</v>
+        <v>111785249</v>
       </c>
       <c r="B143" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17190,25 +17190,25 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -17218,10 +17218,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>577827.9269310302</v>
+        <v>577733.3514479286</v>
       </c>
       <c r="R143" t="n">
-        <v>6944682.172251224</v>
+        <v>6944900.913506362</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17290,10 +17290,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111785248</v>
+        <v>111785212</v>
       </c>
       <c r="B144" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17306,21 +17306,21 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -17330,10 +17330,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>577835.1553672029</v>
+        <v>577594.6139770675</v>
       </c>
       <c r="R144" t="n">
-        <v>6944747.252110518</v>
+        <v>6945057.386468799</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17402,7 +17402,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111785243</v>
+        <v>111785242</v>
       </c>
       <c r="B145" t="n">
         <v>96348</v>
@@ -17442,10 +17442,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>577759.6338390541</v>
+        <v>577789.7963988667</v>
       </c>
       <c r="R145" t="n">
-        <v>6944547.520700022</v>
+        <v>6944558.818226521</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17514,10 +17514,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111785207</v>
+        <v>111785236</v>
       </c>
       <c r="B146" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -17526,25 +17526,25 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -17554,10 +17554,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>577591.1417373432</v>
+        <v>577572.4076091016</v>
       </c>
       <c r="R146" t="n">
-        <v>6944930.258641767</v>
+        <v>6944824.864356839</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17626,7 +17626,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111785227</v>
+        <v>111785223</v>
       </c>
       <c r="B147" t="n">
         <v>78578</v>
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>577609.3004002962</v>
+        <v>577811.1671387866</v>
       </c>
       <c r="R147" t="n">
-        <v>6944686.704950654</v>
+        <v>6944591.08636965</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17738,10 +17738,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111785247</v>
+        <v>111785215</v>
       </c>
       <c r="B148" t="n">
-        <v>89419</v>
+        <v>78578</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17754,21 +17754,21 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -17778,10 +17778,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>577741.5837880005</v>
+        <v>577573.3984224057</v>
       </c>
       <c r="R148" t="n">
-        <v>6944884.07477704</v>
+        <v>6944998.890149554</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17850,10 +17850,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111785209</v>
+        <v>111785237</v>
       </c>
       <c r="B149" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -17862,25 +17862,25 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -17890,10 +17890,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>577708.845606568</v>
+        <v>577541.6974019273</v>
       </c>
       <c r="R149" t="n">
-        <v>6945178.823951898</v>
+        <v>6945053.384041801</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17962,10 +17962,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111785239</v>
+        <v>111785247</v>
       </c>
       <c r="B150" t="n">
-        <v>96348</v>
+        <v>89419</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17974,25 +17974,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>220787</v>
+        <v>1204</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -18002,10 +18002,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>577769.2469415551</v>
+        <v>577741.5837880005</v>
       </c>
       <c r="R150" t="n">
-        <v>6944844.675943938</v>
+        <v>6944884.07477704</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -18074,10 +18074,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111785224</v>
+        <v>111785239</v>
       </c>
       <c r="B151" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -18086,25 +18086,25 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -18114,10 +18114,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>577789.1149903627</v>
+        <v>577769.2469415551</v>
       </c>
       <c r="R151" t="n">
-        <v>6944587.805691725</v>
+        <v>6944844.675943938</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -18186,10 +18186,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111785249</v>
+        <v>111785194</v>
       </c>
       <c r="B152" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -18198,25 +18198,25 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -18226,10 +18226,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>577733.3514479286</v>
+        <v>577827.9269310302</v>
       </c>
       <c r="R152" t="n">
-        <v>6944900.913506362</v>
+        <v>6944682.172251224</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18298,7 +18298,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111785223</v>
+        <v>111785213</v>
       </c>
       <c r="B153" t="n">
         <v>78578</v>
@@ -18338,10 +18338,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>577811.1671387866</v>
+        <v>577597.0534766318</v>
       </c>
       <c r="R153" t="n">
-        <v>6944591.08636965</v>
+        <v>6945012.333558927</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18410,7 +18410,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111785215</v>
+        <v>111785218</v>
       </c>
       <c r="B154" t="n">
         <v>78578</v>
@@ -18450,10 +18450,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>577573.3984224057</v>
+        <v>577777.4147107385</v>
       </c>
       <c r="R154" t="n">
-        <v>6944998.890149554</v>
+        <v>6944830.597507096</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18522,10 +18522,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111785210</v>
+        <v>111785196</v>
       </c>
       <c r="B155" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18534,25 +18534,25 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -18562,10 +18562,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>577699.3262563417</v>
+        <v>577807.1996835115</v>
       </c>
       <c r="R155" t="n">
-        <v>6945152.363841761</v>
+        <v>6944602.962691978</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18634,10 +18634,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111785225</v>
+        <v>111785193</v>
       </c>
       <c r="B156" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18646,25 +18646,25 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -18674,10 +18674,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>577742.0418335226</v>
+        <v>577575.9394238007</v>
       </c>
       <c r="R156" t="n">
-        <v>6944530.994174051</v>
+        <v>6944851.186223409</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -18746,7 +18746,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111785208</v>
+        <v>111785222</v>
       </c>
       <c r="B157" t="n">
         <v>78578</v>
@@ -18786,10 +18786,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>577539.8790421919</v>
+        <v>577817.9552042313</v>
       </c>
       <c r="R157" t="n">
-        <v>6945032.627663832</v>
+        <v>6944616.105901928</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -18858,7 +18858,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111785238</v>
+        <v>111785240</v>
       </c>
       <c r="B158" t="n">
         <v>96348</v>
@@ -18898,10 +18898,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>577598.5769079959</v>
+        <v>577827.3226169772</v>
       </c>
       <c r="R158" t="n">
-        <v>6945065.304574955</v>
+        <v>6944747.067874849</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -18970,10 +18970,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111785242</v>
+        <v>111785207</v>
       </c>
       <c r="B159" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -18982,25 +18982,25 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -19010,10 +19010,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>577789.7963988667</v>
+        <v>577591.1417373432</v>
       </c>
       <c r="R159" t="n">
-        <v>6944558.818226521</v>
+        <v>6944930.258641767</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -19082,7 +19082,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111785218</v>
+        <v>111785221</v>
       </c>
       <c r="B160" t="n">
         <v>78578</v>
@@ -19122,10 +19122,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>577777.4147107385</v>
+        <v>577882.1692875527</v>
       </c>
       <c r="R160" t="n">
-        <v>6944830.597507096</v>
+        <v>6944590.915173424</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19194,7 +19194,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111785236</v>
+        <v>111785238</v>
       </c>
       <c r="B161" t="n">
         <v>96348</v>
@@ -19234,10 +19234,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>577572.4076091016</v>
+        <v>577598.5769079959</v>
       </c>
       <c r="R161" t="n">
-        <v>6944824.864356839</v>
+        <v>6945065.304574955</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>

--- a/artfynd/A 53495-2020.xlsx
+++ b/artfynd/A 53495-2020.xlsx
@@ -15386,10 +15386,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111785216</v>
+        <v>111785242</v>
       </c>
       <c r="B127" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15398,25 +15398,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>577619.0624429594</v>
+        <v>577789.7963988667</v>
       </c>
       <c r="R127" t="n">
-        <v>6944938.738972194</v>
+        <v>6944558.818226521</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15498,10 +15498,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111785209</v>
+        <v>111785238</v>
       </c>
       <c r="B128" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15510,25 +15510,25 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -15538,10 +15538,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>577708.845606568</v>
+        <v>577598.5769079959</v>
       </c>
       <c r="R128" t="n">
-        <v>6945178.823951898</v>
+        <v>6945065.304574955</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15610,7 +15610,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111785226</v>
+        <v>111785212</v>
       </c>
       <c r="B129" t="n">
         <v>78578</v>
@@ -15650,10 +15650,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>577680.815564253</v>
+        <v>577594.6139770675</v>
       </c>
       <c r="R129" t="n">
-        <v>6944566.386431335</v>
+        <v>6945057.386468799</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15722,10 +15722,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111785246</v>
+        <v>111785208</v>
       </c>
       <c r="B130" t="n">
-        <v>73634</v>
+        <v>78578</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15734,25 +15734,25 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>6426</v>
+        <v>6458</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -15762,10 +15762,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>577818.8902223237</v>
+        <v>577539.8790421919</v>
       </c>
       <c r="R130" t="n">
-        <v>6944791.983443609</v>
+        <v>6945032.627663832</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15834,10 +15834,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111785208</v>
+        <v>111785246</v>
       </c>
       <c r="B131" t="n">
-        <v>78578</v>
+        <v>73634</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15846,25 +15846,25 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>6458</v>
+        <v>6426</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -15874,10 +15874,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>577539.8790421919</v>
+        <v>577818.8902223237</v>
       </c>
       <c r="R131" t="n">
-        <v>6945032.627663832</v>
+        <v>6944791.983443609</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15946,7 +15946,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111785225</v>
+        <v>111785220</v>
       </c>
       <c r="B132" t="n">
         <v>78578</v>
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>577742.0418335226</v>
+        <v>577929.7593229595</v>
       </c>
       <c r="R132" t="n">
-        <v>6944530.994174051</v>
+        <v>6944625.642482976</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -16058,10 +16058,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111785210</v>
+        <v>111785236</v>
       </c>
       <c r="B133" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -16070,25 +16070,25 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -16098,10 +16098,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>577699.3262563417</v>
+        <v>577572.4076091016</v>
       </c>
       <c r="R133" t="n">
-        <v>6945152.363841761</v>
+        <v>6944824.864356839</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -16170,7 +16170,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111785219</v>
+        <v>111785213</v>
       </c>
       <c r="B134" t="n">
         <v>78578</v>
@@ -16210,10 +16210,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>577815.6496847487</v>
+        <v>577597.0534766318</v>
       </c>
       <c r="R134" t="n">
-        <v>6944812.162249871</v>
+        <v>6945012.333558927</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -16282,10 +16282,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111785224</v>
+        <v>111785240</v>
       </c>
       <c r="B135" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -16294,25 +16294,25 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -16322,10 +16322,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>577789.1149903627</v>
+        <v>577827.3226169772</v>
       </c>
       <c r="R135" t="n">
-        <v>6944587.805691725</v>
+        <v>6944747.067874849</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16394,10 +16394,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111785195</v>
+        <v>111785222</v>
       </c>
       <c r="B136" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -16406,25 +16406,25 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -16506,10 +16506,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111785243</v>
+        <v>111785194</v>
       </c>
       <c r="B137" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16518,25 +16518,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -16546,10 +16546,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>577759.6338390541</v>
+        <v>577827.9269310302</v>
       </c>
       <c r="R137" t="n">
-        <v>6944547.520700022</v>
+        <v>6944682.172251224</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16618,10 +16618,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111785241</v>
+        <v>111785209</v>
       </c>
       <c r="B138" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16630,25 +16630,25 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -16658,10 +16658,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>577823.0208926643</v>
+        <v>577708.845606568</v>
       </c>
       <c r="R138" t="n">
-        <v>6944675.151490607</v>
+        <v>6945178.823951898</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16730,10 +16730,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111785220</v>
+        <v>111785239</v>
       </c>
       <c r="B139" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16742,25 +16742,25 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -16770,10 +16770,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>577929.7593229595</v>
+        <v>577769.2469415551</v>
       </c>
       <c r="R139" t="n">
-        <v>6944625.642482976</v>
+        <v>6944844.675943938</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16842,10 +16842,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111785248</v>
+        <v>111785225</v>
       </c>
       <c r="B140" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16858,21 +16858,21 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16882,10 +16882,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>577835.1553672029</v>
+        <v>577742.0418335226</v>
       </c>
       <c r="R140" t="n">
-        <v>6944747.252110518</v>
+        <v>6944530.994174051</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16954,10 +16954,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111785211</v>
+        <v>111785243</v>
       </c>
       <c r="B141" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16966,25 +16966,25 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -16994,10 +16994,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>577681.525001083</v>
+        <v>577759.6338390541</v>
       </c>
       <c r="R141" t="n">
-        <v>6945125.248796649</v>
+        <v>6944547.520700022</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -17066,10 +17066,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111785227</v>
+        <v>111785196</v>
       </c>
       <c r="B142" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -17078,25 +17078,25 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -17106,10 +17106,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>577609.3004002962</v>
+        <v>577807.1996835115</v>
       </c>
       <c r="R142" t="n">
-        <v>6944686.704950654</v>
+        <v>6944602.962691978</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17178,10 +17178,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111785249</v>
+        <v>111785218</v>
       </c>
       <c r="B143" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17194,21 +17194,21 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -17218,10 +17218,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>577733.3514479286</v>
+        <v>577777.4147107385</v>
       </c>
       <c r="R143" t="n">
-        <v>6944900.913506362</v>
+        <v>6944830.597507096</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17290,10 +17290,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111785212</v>
+        <v>111785248</v>
       </c>
       <c r="B144" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17306,21 +17306,21 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -17330,10 +17330,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>577594.6139770675</v>
+        <v>577835.1553672029</v>
       </c>
       <c r="R144" t="n">
-        <v>6945057.386468799</v>
+        <v>6944747.252110518</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17402,10 +17402,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111785242</v>
+        <v>111785195</v>
       </c>
       <c r="B145" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17414,25 +17414,25 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -17442,10 +17442,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>577789.7963988667</v>
+        <v>577817.9552042313</v>
       </c>
       <c r="R145" t="n">
-        <v>6944558.818226521</v>
+        <v>6944616.105901928</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17514,10 +17514,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111785236</v>
+        <v>111785207</v>
       </c>
       <c r="B146" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -17526,25 +17526,25 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -17554,10 +17554,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>577572.4076091016</v>
+        <v>577591.1417373432</v>
       </c>
       <c r="R146" t="n">
-        <v>6944824.864356839</v>
+        <v>6944930.258641767</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17626,7 +17626,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111785223</v>
+        <v>111785210</v>
       </c>
       <c r="B147" t="n">
         <v>78578</v>
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>577811.1671387866</v>
+        <v>577699.3262563417</v>
       </c>
       <c r="R147" t="n">
-        <v>6944591.08636965</v>
+        <v>6945152.363841761</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17850,10 +17850,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111785237</v>
+        <v>111785211</v>
       </c>
       <c r="B149" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -17862,25 +17862,25 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -17890,10 +17890,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>577541.6974019273</v>
+        <v>577681.525001083</v>
       </c>
       <c r="R149" t="n">
-        <v>6945053.384041801</v>
+        <v>6945125.248796649</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17962,10 +17962,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111785247</v>
+        <v>111785193</v>
       </c>
       <c r="B150" t="n">
-        <v>89419</v>
+        <v>78605</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17974,25 +17974,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1204</v>
+        <v>6462</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -18002,10 +18002,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>577741.5837880005</v>
+        <v>577575.9394238007</v>
       </c>
       <c r="R150" t="n">
-        <v>6944884.07477704</v>
+        <v>6944851.186223409</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -18074,10 +18074,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111785239</v>
+        <v>111785224</v>
       </c>
       <c r="B151" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -18086,25 +18086,25 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -18114,10 +18114,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>577769.2469415551</v>
+        <v>577789.1149903627</v>
       </c>
       <c r="R151" t="n">
-        <v>6944844.675943938</v>
+        <v>6944587.805691725</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -18186,10 +18186,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111785194</v>
+        <v>111785241</v>
       </c>
       <c r="B152" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -18198,25 +18198,25 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -18226,10 +18226,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>577827.9269310302</v>
+        <v>577823.0208926643</v>
       </c>
       <c r="R152" t="n">
-        <v>6944682.172251224</v>
+        <v>6944675.151490607</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18298,10 +18298,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111785213</v>
+        <v>111785249</v>
       </c>
       <c r="B153" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -18314,21 +18314,21 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
@@ -18338,10 +18338,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>577597.0534766318</v>
+        <v>577733.3514479286</v>
       </c>
       <c r="R153" t="n">
-        <v>6945012.333558927</v>
+        <v>6944900.913506362</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18410,7 +18410,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111785218</v>
+        <v>111785219</v>
       </c>
       <c r="B154" t="n">
         <v>78578</v>
@@ -18450,10 +18450,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>577777.4147107385</v>
+        <v>577815.6496847487</v>
       </c>
       <c r="R154" t="n">
-        <v>6944830.597507096</v>
+        <v>6944812.162249871</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18522,10 +18522,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111785196</v>
+        <v>111785227</v>
       </c>
       <c r="B155" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18534,25 +18534,25 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -18562,10 +18562,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>577807.1996835115</v>
+        <v>577609.3004002962</v>
       </c>
       <c r="R155" t="n">
-        <v>6944602.962691978</v>
+        <v>6944686.704950654</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18634,10 +18634,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111785193</v>
+        <v>111785223</v>
       </c>
       <c r="B156" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18646,25 +18646,25 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -18674,10 +18674,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>577575.9394238007</v>
+        <v>577811.1671387866</v>
       </c>
       <c r="R156" t="n">
-        <v>6944851.186223409</v>
+        <v>6944591.08636965</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -18746,10 +18746,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111785222</v>
+        <v>111785237</v>
       </c>
       <c r="B157" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -18758,25 +18758,25 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -18786,10 +18786,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>577817.9552042313</v>
+        <v>577541.6974019273</v>
       </c>
       <c r="R157" t="n">
-        <v>6944616.105901928</v>
+        <v>6945053.384041801</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -18858,10 +18858,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111785240</v>
+        <v>111785226</v>
       </c>
       <c r="B158" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -18870,25 +18870,25 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -18898,10 +18898,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>577827.3226169772</v>
+        <v>577680.815564253</v>
       </c>
       <c r="R158" t="n">
-        <v>6944747.067874849</v>
+        <v>6944566.386431335</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -18970,7 +18970,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111785207</v>
+        <v>111785221</v>
       </c>
       <c r="B159" t="n">
         <v>78578</v>
@@ -19010,10 +19010,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>577591.1417373432</v>
+        <v>577882.1692875527</v>
       </c>
       <c r="R159" t="n">
-        <v>6944930.258641767</v>
+        <v>6944590.915173424</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -19082,10 +19082,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111785221</v>
+        <v>111785247</v>
       </c>
       <c r="B160" t="n">
-        <v>78578</v>
+        <v>89419</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -19098,21 +19098,21 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -19122,10 +19122,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>577882.1692875527</v>
+        <v>577741.5837880005</v>
       </c>
       <c r="R160" t="n">
-        <v>6944590.915173424</v>
+        <v>6944884.07477704</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19194,10 +19194,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111785238</v>
+        <v>111785216</v>
       </c>
       <c r="B161" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -19206,25 +19206,25 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
@@ -19234,10 +19234,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>577598.5769079959</v>
+        <v>577619.0624429594</v>
       </c>
       <c r="R161" t="n">
-        <v>6945065.304574955</v>
+        <v>6944938.738972194</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>

--- a/artfynd/A 53495-2020.xlsx
+++ b/artfynd/A 53495-2020.xlsx
@@ -15386,10 +15386,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111785242</v>
+        <v>111785220</v>
       </c>
       <c r="B127" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15398,25 +15398,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>577789.7963988667</v>
+        <v>577929.7593229595</v>
       </c>
       <c r="R127" t="n">
-        <v>6944558.818226521</v>
+        <v>6944625.642482976</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15498,10 +15498,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111785238</v>
+        <v>111785247</v>
       </c>
       <c r="B128" t="n">
-        <v>96348</v>
+        <v>89419</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15510,25 +15510,25 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>220787</v>
+        <v>1204</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -15538,10 +15538,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>577598.5769079959</v>
+        <v>577741.5837880005</v>
       </c>
       <c r="R128" t="n">
-        <v>6945065.304574955</v>
+        <v>6944884.07477704</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15610,10 +15610,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111785212</v>
+        <v>111785237</v>
       </c>
       <c r="B129" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15622,25 +15622,25 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -15650,10 +15650,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>577594.6139770675</v>
+        <v>577541.6974019273</v>
       </c>
       <c r="R129" t="n">
-        <v>6945057.386468799</v>
+        <v>6945053.384041801</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15722,7 +15722,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111785208</v>
+        <v>111785219</v>
       </c>
       <c r="B130" t="n">
         <v>78578</v>
@@ -15762,10 +15762,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>577539.8790421919</v>
+        <v>577815.6496847487</v>
       </c>
       <c r="R130" t="n">
-        <v>6945032.627663832</v>
+        <v>6944812.162249871</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15834,10 +15834,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111785246</v>
+        <v>111785225</v>
       </c>
       <c r="B131" t="n">
-        <v>73634</v>
+        <v>78578</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15846,25 +15846,25 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>6426</v>
+        <v>6458</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -15874,10 +15874,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>577818.8902223237</v>
+        <v>577742.0418335226</v>
       </c>
       <c r="R131" t="n">
-        <v>6944791.983443609</v>
+        <v>6944530.994174051</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15946,7 +15946,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111785220</v>
+        <v>111785224</v>
       </c>
       <c r="B132" t="n">
         <v>78578</v>
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>577929.7593229595</v>
+        <v>577789.1149903627</v>
       </c>
       <c r="R132" t="n">
-        <v>6944625.642482976</v>
+        <v>6944587.805691725</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -16058,10 +16058,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111785236</v>
+        <v>111785248</v>
       </c>
       <c r="B133" t="n">
-        <v>96348</v>
+        <v>89423</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -16070,25 +16070,25 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -16098,10 +16098,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>577572.4076091016</v>
+        <v>577835.1553672029</v>
       </c>
       <c r="R133" t="n">
-        <v>6944824.864356839</v>
+        <v>6944747.252110518</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -16170,10 +16170,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111785213</v>
+        <v>111785195</v>
       </c>
       <c r="B134" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -16182,25 +16182,25 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -16210,10 +16210,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>577597.0534766318</v>
+        <v>577817.9552042313</v>
       </c>
       <c r="R134" t="n">
-        <v>6945012.333558927</v>
+        <v>6944616.105901928</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -16282,10 +16282,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111785240</v>
+        <v>111785209</v>
       </c>
       <c r="B135" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -16294,25 +16294,25 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -16322,10 +16322,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>577827.3226169772</v>
+        <v>577708.845606568</v>
       </c>
       <c r="R135" t="n">
-        <v>6944747.067874849</v>
+        <v>6945178.823951898</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16394,10 +16394,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111785222</v>
+        <v>111785242</v>
       </c>
       <c r="B136" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -16406,25 +16406,25 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -16434,10 +16434,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>577817.9552042313</v>
+        <v>577789.7963988667</v>
       </c>
       <c r="R136" t="n">
-        <v>6944616.105901928</v>
+        <v>6944558.818226521</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16506,10 +16506,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111785194</v>
+        <v>111785243</v>
       </c>
       <c r="B137" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16518,25 +16518,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -16546,10 +16546,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>577827.9269310302</v>
+        <v>577759.6338390541</v>
       </c>
       <c r="R137" t="n">
-        <v>6944682.172251224</v>
+        <v>6944547.520700022</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16618,7 +16618,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111785209</v>
+        <v>111785222</v>
       </c>
       <c r="B138" t="n">
         <v>78578</v>
@@ -16658,10 +16658,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>577708.845606568</v>
+        <v>577817.9552042313</v>
       </c>
       <c r="R138" t="n">
-        <v>6945178.823951898</v>
+        <v>6944616.105901928</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16730,10 +16730,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111785239</v>
+        <v>111785223</v>
       </c>
       <c r="B139" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16742,25 +16742,25 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -16770,10 +16770,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>577769.2469415551</v>
+        <v>577811.1671387866</v>
       </c>
       <c r="R139" t="n">
-        <v>6944844.675943938</v>
+        <v>6944591.08636965</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16842,10 +16842,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111785225</v>
+        <v>111785239</v>
       </c>
       <c r="B140" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16854,25 +16854,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16882,10 +16882,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>577742.0418335226</v>
+        <v>577769.2469415551</v>
       </c>
       <c r="R140" t="n">
-        <v>6944530.994174051</v>
+        <v>6944844.675943938</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16954,10 +16954,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111785243</v>
+        <v>111785211</v>
       </c>
       <c r="B141" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16966,25 +16966,25 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -16994,10 +16994,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>577759.6338390541</v>
+        <v>577681.525001083</v>
       </c>
       <c r="R141" t="n">
-        <v>6944547.520700022</v>
+        <v>6945125.248796649</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -17066,7 +17066,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111785196</v>
+        <v>111785193</v>
       </c>
       <c r="B142" t="n">
         <v>78605</v>
@@ -17106,10 +17106,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>577807.1996835115</v>
+        <v>577575.9394238007</v>
       </c>
       <c r="R142" t="n">
-        <v>6944602.962691978</v>
+        <v>6944851.186223409</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17178,10 +17178,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111785218</v>
+        <v>111785246</v>
       </c>
       <c r="B143" t="n">
-        <v>78578</v>
+        <v>73634</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17190,25 +17190,25 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6458</v>
+        <v>6426</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -17218,10 +17218,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>577777.4147107385</v>
+        <v>577818.8902223237</v>
       </c>
       <c r="R143" t="n">
-        <v>6944830.597507096</v>
+        <v>6944791.983443609</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17290,10 +17290,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111785248</v>
+        <v>111785215</v>
       </c>
       <c r="B144" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17306,21 +17306,21 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -17330,10 +17330,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>577835.1553672029</v>
+        <v>577573.3984224057</v>
       </c>
       <c r="R144" t="n">
-        <v>6944747.252110518</v>
+        <v>6944998.890149554</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17402,10 +17402,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111785195</v>
+        <v>111785240</v>
       </c>
       <c r="B145" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17414,25 +17414,25 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -17442,10 +17442,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>577817.9552042313</v>
+        <v>577827.3226169772</v>
       </c>
       <c r="R145" t="n">
-        <v>6944616.105901928</v>
+        <v>6944747.067874849</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17626,7 +17626,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111785210</v>
+        <v>111785221</v>
       </c>
       <c r="B147" t="n">
         <v>78578</v>
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>577699.3262563417</v>
+        <v>577882.1692875527</v>
       </c>
       <c r="R147" t="n">
-        <v>6945152.363841761</v>
+        <v>6944590.915173424</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17738,10 +17738,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111785215</v>
+        <v>111785249</v>
       </c>
       <c r="B148" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17754,21 +17754,21 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -17778,10 +17778,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>577573.3984224057</v>
+        <v>577733.3514479286</v>
       </c>
       <c r="R148" t="n">
-        <v>6944998.890149554</v>
+        <v>6944900.913506362</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17850,7 +17850,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111785211</v>
+        <v>111785210</v>
       </c>
       <c r="B149" t="n">
         <v>78578</v>
@@ -17890,10 +17890,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>577681.525001083</v>
+        <v>577699.3262563417</v>
       </c>
       <c r="R149" t="n">
-        <v>6945125.248796649</v>
+        <v>6945152.363841761</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17962,10 +17962,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111785193</v>
+        <v>111785208</v>
       </c>
       <c r="B150" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17974,25 +17974,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -18002,10 +18002,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>577575.9394238007</v>
+        <v>577539.8790421919</v>
       </c>
       <c r="R150" t="n">
-        <v>6944851.186223409</v>
+        <v>6945032.627663832</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -18074,7 +18074,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111785224</v>
+        <v>111785226</v>
       </c>
       <c r="B151" t="n">
         <v>78578</v>
@@ -18114,10 +18114,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>577789.1149903627</v>
+        <v>577680.815564253</v>
       </c>
       <c r="R151" t="n">
-        <v>6944587.805691725</v>
+        <v>6944566.386431335</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -18186,10 +18186,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111785241</v>
+        <v>111785216</v>
       </c>
       <c r="B152" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -18198,25 +18198,25 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -18226,10 +18226,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>577823.0208926643</v>
+        <v>577619.0624429594</v>
       </c>
       <c r="R152" t="n">
-        <v>6944675.151490607</v>
+        <v>6944938.738972194</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18298,10 +18298,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111785249</v>
+        <v>111785238</v>
       </c>
       <c r="B153" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -18310,25 +18310,25 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
@@ -18338,10 +18338,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>577733.3514479286</v>
+        <v>577598.5769079959</v>
       </c>
       <c r="R153" t="n">
-        <v>6944900.913506362</v>
+        <v>6945065.304574955</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18410,7 +18410,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111785219</v>
+        <v>111785212</v>
       </c>
       <c r="B154" t="n">
         <v>78578</v>
@@ -18450,10 +18450,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>577815.6496847487</v>
+        <v>577594.6139770675</v>
       </c>
       <c r="R154" t="n">
-        <v>6944812.162249871</v>
+        <v>6945057.386468799</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18522,10 +18522,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111785227</v>
+        <v>111785236</v>
       </c>
       <c r="B155" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18534,25 +18534,25 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -18562,10 +18562,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>577609.3004002962</v>
+        <v>577572.4076091016</v>
       </c>
       <c r="R155" t="n">
-        <v>6944686.704950654</v>
+        <v>6944824.864356839</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18634,10 +18634,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111785223</v>
+        <v>111785196</v>
       </c>
       <c r="B156" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18646,25 +18646,25 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -18674,10 +18674,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>577811.1671387866</v>
+        <v>577807.1996835115</v>
       </c>
       <c r="R156" t="n">
-        <v>6944591.08636965</v>
+        <v>6944602.962691978</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -18746,10 +18746,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111785237</v>
+        <v>111785194</v>
       </c>
       <c r="B157" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -18758,25 +18758,25 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -18786,10 +18786,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>577541.6974019273</v>
+        <v>577827.9269310302</v>
       </c>
       <c r="R157" t="n">
-        <v>6945053.384041801</v>
+        <v>6944682.172251224</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -18858,10 +18858,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111785226</v>
+        <v>111785241</v>
       </c>
       <c r="B158" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -18870,25 +18870,25 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -18898,10 +18898,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>577680.815564253</v>
+        <v>577823.0208926643</v>
       </c>
       <c r="R158" t="n">
-        <v>6944566.386431335</v>
+        <v>6944675.151490607</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -18970,7 +18970,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111785221</v>
+        <v>111785213</v>
       </c>
       <c r="B159" t="n">
         <v>78578</v>
@@ -19010,10 +19010,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>577882.1692875527</v>
+        <v>577597.0534766318</v>
       </c>
       <c r="R159" t="n">
-        <v>6944590.915173424</v>
+        <v>6945012.333558927</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -19082,10 +19082,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111785247</v>
+        <v>111785227</v>
       </c>
       <c r="B160" t="n">
-        <v>89419</v>
+        <v>78578</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -19098,21 +19098,21 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -19122,10 +19122,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>577741.5837880005</v>
+        <v>577609.3004002962</v>
       </c>
       <c r="R160" t="n">
-        <v>6944884.07477704</v>
+        <v>6944686.704950654</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19194,7 +19194,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111785216</v>
+        <v>111785218</v>
       </c>
       <c r="B161" t="n">
         <v>78578</v>
@@ -19234,10 +19234,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>577619.0624429594</v>
+        <v>577777.4147107385</v>
       </c>
       <c r="R161" t="n">
-        <v>6944938.738972194</v>
+        <v>6944830.597507096</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>

--- a/artfynd/A 53495-2020.xlsx
+++ b/artfynd/A 53495-2020.xlsx
@@ -15386,10 +15386,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111785220</v>
+        <v>111785241</v>
       </c>
       <c r="B127" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15398,25 +15398,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>577929.7593229595</v>
+        <v>577823.0208926643</v>
       </c>
       <c r="R127" t="n">
-        <v>6944625.642482976</v>
+        <v>6944675.151490607</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15498,10 +15498,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111785247</v>
+        <v>111785212</v>
       </c>
       <c r="B128" t="n">
-        <v>89419</v>
+        <v>78578</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15514,21 +15514,21 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -15538,10 +15538,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>577741.5837880005</v>
+        <v>577594.6139770675</v>
       </c>
       <c r="R128" t="n">
-        <v>6944884.07477704</v>
+        <v>6945057.386468799</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15610,7 +15610,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111785237</v>
+        <v>111785239</v>
       </c>
       <c r="B129" t="n">
         <v>96348</v>
@@ -15650,10 +15650,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>577541.6974019273</v>
+        <v>577769.2469415551</v>
       </c>
       <c r="R129" t="n">
-        <v>6945053.384041801</v>
+        <v>6944844.675943938</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15722,10 +15722,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111785219</v>
+        <v>111785196</v>
       </c>
       <c r="B130" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15734,25 +15734,25 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -15762,10 +15762,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>577815.6496847487</v>
+        <v>577807.1996835115</v>
       </c>
       <c r="R130" t="n">
-        <v>6944812.162249871</v>
+        <v>6944602.962691978</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15834,10 +15834,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111785225</v>
+        <v>111785237</v>
       </c>
       <c r="B131" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15846,25 +15846,25 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -15874,10 +15874,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>577742.0418335226</v>
+        <v>577541.6974019273</v>
       </c>
       <c r="R131" t="n">
-        <v>6944530.994174051</v>
+        <v>6945053.384041801</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15946,10 +15946,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111785224</v>
+        <v>111785249</v>
       </c>
       <c r="B132" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15962,21 +15962,21 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>577789.1149903627</v>
+        <v>577733.3514479286</v>
       </c>
       <c r="R132" t="n">
-        <v>6944587.805691725</v>
+        <v>6944900.913506362</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -16058,10 +16058,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111785248</v>
+        <v>111785246</v>
       </c>
       <c r="B133" t="n">
-        <v>89423</v>
+        <v>73634</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -16070,25 +16070,25 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>5432</v>
+        <v>6426</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -16098,10 +16098,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>577835.1553672029</v>
+        <v>577818.8902223237</v>
       </c>
       <c r="R133" t="n">
-        <v>6944747.252110518</v>
+        <v>6944791.983443609</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -16170,10 +16170,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111785195</v>
+        <v>111785218</v>
       </c>
       <c r="B134" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -16182,25 +16182,25 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -16210,10 +16210,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>577817.9552042313</v>
+        <v>577777.4147107385</v>
       </c>
       <c r="R134" t="n">
-        <v>6944616.105901928</v>
+        <v>6944830.597507096</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -16282,7 +16282,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111785209</v>
+        <v>111785215</v>
       </c>
       <c r="B135" t="n">
         <v>78578</v>
@@ -16322,10 +16322,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>577708.845606568</v>
+        <v>577573.3984224057</v>
       </c>
       <c r="R135" t="n">
-        <v>6945178.823951898</v>
+        <v>6944998.890149554</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16394,10 +16394,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111785242</v>
+        <v>111785211</v>
       </c>
       <c r="B136" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -16406,25 +16406,25 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -16434,10 +16434,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>577789.7963988667</v>
+        <v>577681.525001083</v>
       </c>
       <c r="R136" t="n">
-        <v>6944558.818226521</v>
+        <v>6945125.248796649</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16506,10 +16506,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111785243</v>
+        <v>111785227</v>
       </c>
       <c r="B137" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16518,25 +16518,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -16546,10 +16546,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>577759.6338390541</v>
+        <v>577609.3004002962</v>
       </c>
       <c r="R137" t="n">
-        <v>6944547.520700022</v>
+        <v>6944686.704950654</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16618,7 +16618,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111785222</v>
+        <v>111785220</v>
       </c>
       <c r="B138" t="n">
         <v>78578</v>
@@ -16658,10 +16658,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>577817.9552042313</v>
+        <v>577929.7593229595</v>
       </c>
       <c r="R138" t="n">
-        <v>6944616.105901928</v>
+        <v>6944625.642482976</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16730,10 +16730,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111785223</v>
+        <v>111785195</v>
       </c>
       <c r="B139" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16742,25 +16742,25 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -16770,10 +16770,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>577811.1671387866</v>
+        <v>577817.9552042313</v>
       </c>
       <c r="R139" t="n">
-        <v>6944591.08636965</v>
+        <v>6944616.105901928</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16842,10 +16842,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111785239</v>
+        <v>111785248</v>
       </c>
       <c r="B140" t="n">
-        <v>96348</v>
+        <v>89423</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16854,25 +16854,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16882,10 +16882,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>577769.2469415551</v>
+        <v>577835.1553672029</v>
       </c>
       <c r="R140" t="n">
-        <v>6944844.675943938</v>
+        <v>6944747.252110518</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111785211</v>
+        <v>111785224</v>
       </c>
       <c r="B141" t="n">
         <v>78578</v>
@@ -16994,10 +16994,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>577681.525001083</v>
+        <v>577789.1149903627</v>
       </c>
       <c r="R141" t="n">
-        <v>6945125.248796649</v>
+        <v>6944587.805691725</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -17066,10 +17066,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111785193</v>
+        <v>111785216</v>
       </c>
       <c r="B142" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -17078,25 +17078,25 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -17106,10 +17106,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>577575.9394238007</v>
+        <v>577619.0624429594</v>
       </c>
       <c r="R142" t="n">
-        <v>6944851.186223409</v>
+        <v>6944938.738972194</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17178,10 +17178,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111785246</v>
+        <v>111785222</v>
       </c>
       <c r="B143" t="n">
-        <v>73634</v>
+        <v>78578</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17190,25 +17190,25 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6426</v>
+        <v>6458</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -17218,10 +17218,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>577818.8902223237</v>
+        <v>577817.9552042313</v>
       </c>
       <c r="R143" t="n">
-        <v>6944791.983443609</v>
+        <v>6944616.105901928</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17290,7 +17290,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111785215</v>
+        <v>111785210</v>
       </c>
       <c r="B144" t="n">
         <v>78578</v>
@@ -17330,10 +17330,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>577573.3984224057</v>
+        <v>577699.3262563417</v>
       </c>
       <c r="R144" t="n">
-        <v>6944998.890149554</v>
+        <v>6945152.363841761</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17402,10 +17402,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111785240</v>
+        <v>111785213</v>
       </c>
       <c r="B145" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17414,25 +17414,25 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -17442,10 +17442,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>577827.3226169772</v>
+        <v>577597.0534766318</v>
       </c>
       <c r="R145" t="n">
-        <v>6944747.067874849</v>
+        <v>6945012.333558927</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17514,7 +17514,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111785207</v>
+        <v>111785226</v>
       </c>
       <c r="B146" t="n">
         <v>78578</v>
@@ -17554,10 +17554,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>577591.1417373432</v>
+        <v>577680.815564253</v>
       </c>
       <c r="R146" t="n">
-        <v>6944930.258641767</v>
+        <v>6944566.386431335</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17626,7 +17626,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111785221</v>
+        <v>111785209</v>
       </c>
       <c r="B147" t="n">
         <v>78578</v>
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>577882.1692875527</v>
+        <v>577708.845606568</v>
       </c>
       <c r="R147" t="n">
-        <v>6944590.915173424</v>
+        <v>6945178.823951898</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17738,10 +17738,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111785249</v>
+        <v>111785238</v>
       </c>
       <c r="B148" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17750,25 +17750,25 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -17778,10 +17778,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>577733.3514479286</v>
+        <v>577598.5769079959</v>
       </c>
       <c r="R148" t="n">
-        <v>6944900.913506362</v>
+        <v>6945065.304574955</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17850,7 +17850,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111785210</v>
+        <v>111785219</v>
       </c>
       <c r="B149" t="n">
         <v>78578</v>
@@ -17890,10 +17890,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>577699.3262563417</v>
+        <v>577815.6496847487</v>
       </c>
       <c r="R149" t="n">
-        <v>6945152.363841761</v>
+        <v>6944812.162249871</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17962,10 +17962,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111785208</v>
+        <v>111785236</v>
       </c>
       <c r="B150" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17974,25 +17974,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -18002,10 +18002,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>577539.8790421919</v>
+        <v>577572.4076091016</v>
       </c>
       <c r="R150" t="n">
-        <v>6945032.627663832</v>
+        <v>6944824.864356839</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -18074,7 +18074,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111785226</v>
+        <v>111785225</v>
       </c>
       <c r="B151" t="n">
         <v>78578</v>
@@ -18114,10 +18114,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>577680.815564253</v>
+        <v>577742.0418335226</v>
       </c>
       <c r="R151" t="n">
-        <v>6944566.386431335</v>
+        <v>6944530.994174051</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -18186,10 +18186,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111785216</v>
+        <v>111785193</v>
       </c>
       <c r="B152" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -18198,25 +18198,25 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -18226,10 +18226,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>577619.0624429594</v>
+        <v>577575.9394238007</v>
       </c>
       <c r="R152" t="n">
-        <v>6944938.738972194</v>
+        <v>6944851.186223409</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18298,10 +18298,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111785238</v>
+        <v>111785223</v>
       </c>
       <c r="B153" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -18310,25 +18310,25 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
@@ -18338,10 +18338,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>577598.5769079959</v>
+        <v>577811.1671387866</v>
       </c>
       <c r="R153" t="n">
-        <v>6945065.304574955</v>
+        <v>6944591.08636965</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18410,10 +18410,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111785212</v>
+        <v>111785240</v>
       </c>
       <c r="B154" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18422,25 +18422,25 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
@@ -18450,10 +18450,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>577594.6139770675</v>
+        <v>577827.3226169772</v>
       </c>
       <c r="R154" t="n">
-        <v>6945057.386468799</v>
+        <v>6944747.067874849</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18522,10 +18522,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111785236</v>
+        <v>111785221</v>
       </c>
       <c r="B155" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18534,25 +18534,25 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -18562,10 +18562,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>577572.4076091016</v>
+        <v>577882.1692875527</v>
       </c>
       <c r="R155" t="n">
-        <v>6944824.864356839</v>
+        <v>6944590.915173424</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18634,7 +18634,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111785196</v>
+        <v>111785194</v>
       </c>
       <c r="B156" t="n">
         <v>78605</v>
@@ -18674,10 +18674,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>577807.1996835115</v>
+        <v>577827.9269310302</v>
       </c>
       <c r="R156" t="n">
-        <v>6944602.962691978</v>
+        <v>6944682.172251224</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -18746,10 +18746,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111785194</v>
+        <v>111785208</v>
       </c>
       <c r="B157" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -18758,25 +18758,25 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -18786,10 +18786,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>577827.9269310302</v>
+        <v>577539.8790421919</v>
       </c>
       <c r="R157" t="n">
-        <v>6944682.172251224</v>
+        <v>6945032.627663832</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -18858,10 +18858,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111785241</v>
+        <v>111785207</v>
       </c>
       <c r="B158" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -18870,25 +18870,25 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -18898,10 +18898,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>577823.0208926643</v>
+        <v>577591.1417373432</v>
       </c>
       <c r="R158" t="n">
-        <v>6944675.151490607</v>
+        <v>6944930.258641767</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -18970,10 +18970,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111785213</v>
+        <v>111785243</v>
       </c>
       <c r="B159" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -18982,25 +18982,25 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -19010,10 +19010,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>577597.0534766318</v>
+        <v>577759.6338390541</v>
       </c>
       <c r="R159" t="n">
-        <v>6945012.333558927</v>
+        <v>6944547.520700022</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -19082,10 +19082,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111785227</v>
+        <v>111785242</v>
       </c>
       <c r="B160" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -19094,25 +19094,25 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -19122,10 +19122,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>577609.3004002962</v>
+        <v>577789.7963988667</v>
       </c>
       <c r="R160" t="n">
-        <v>6944686.704950654</v>
+        <v>6944558.818226521</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19194,10 +19194,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111785218</v>
+        <v>111785247</v>
       </c>
       <c r="B161" t="n">
-        <v>78578</v>
+        <v>89419</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -19210,21 +19210,21 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
@@ -19234,10 +19234,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>577777.4147107385</v>
+        <v>577741.5837880005</v>
       </c>
       <c r="R161" t="n">
-        <v>6944830.597507096</v>
+        <v>6944884.07477704</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>

--- a/artfynd/A 53495-2020.xlsx
+++ b/artfynd/A 53495-2020.xlsx
@@ -17626,10 +17626,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111785209</v>
+        <v>111785238</v>
       </c>
       <c r="B147" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17638,25 +17638,25 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>577708.845606568</v>
+        <v>577598.5769079959</v>
       </c>
       <c r="R147" t="n">
-        <v>6945178.823951898</v>
+        <v>6945065.304574955</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17738,10 +17738,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111785238</v>
+        <v>111785219</v>
       </c>
       <c r="B148" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17750,25 +17750,25 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -17778,10 +17778,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>577598.5769079959</v>
+        <v>577815.6496847487</v>
       </c>
       <c r="R148" t="n">
-        <v>6945065.304574955</v>
+        <v>6944812.162249871</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17850,7 +17850,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111785219</v>
+        <v>111785209</v>
       </c>
       <c r="B149" t="n">
         <v>78578</v>
@@ -17890,10 +17890,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>577815.6496847487</v>
+        <v>577708.845606568</v>
       </c>
       <c r="R149" t="n">
-        <v>6944812.162249871</v>
+        <v>6945178.823951898</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -18522,10 +18522,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111785221</v>
+        <v>111785194</v>
       </c>
       <c r="B155" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18534,25 +18534,25 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -18562,10 +18562,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>577882.1692875527</v>
+        <v>577827.9269310302</v>
       </c>
       <c r="R155" t="n">
-        <v>6944590.915173424</v>
+        <v>6944682.172251224</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18634,10 +18634,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111785194</v>
+        <v>111785208</v>
       </c>
       <c r="B156" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18646,25 +18646,25 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -18674,10 +18674,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>577827.9269310302</v>
+        <v>577539.8790421919</v>
       </c>
       <c r="R156" t="n">
-        <v>6944682.172251224</v>
+        <v>6945032.627663832</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -18746,7 +18746,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111785208</v>
+        <v>111785221</v>
       </c>
       <c r="B157" t="n">
         <v>78578</v>
@@ -18786,10 +18786,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>577539.8790421919</v>
+        <v>577882.1692875527</v>
       </c>
       <c r="R157" t="n">
-        <v>6945032.627663832</v>
+        <v>6944590.915173424</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -19082,10 +19082,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111785242</v>
+        <v>111785247</v>
       </c>
       <c r="B160" t="n">
-        <v>96348</v>
+        <v>89419</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -19094,25 +19094,25 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>220787</v>
+        <v>1204</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -19122,10 +19122,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>577789.7963988667</v>
+        <v>577741.5837880005</v>
       </c>
       <c r="R160" t="n">
-        <v>6944558.818226521</v>
+        <v>6944884.07477704</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19194,10 +19194,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111785247</v>
+        <v>111785242</v>
       </c>
       <c r="B161" t="n">
-        <v>89419</v>
+        <v>96348</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -19206,25 +19206,25 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1204</v>
+        <v>220787</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
@@ -19234,10 +19234,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>577741.5837880005</v>
+        <v>577789.7963988667</v>
       </c>
       <c r="R161" t="n">
-        <v>6944884.07477704</v>
+        <v>6944558.818226521</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>

--- a/artfynd/A 53495-2020.xlsx
+++ b/artfynd/A 53495-2020.xlsx
@@ -15386,10 +15386,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111785241</v>
+        <v>111785216</v>
       </c>
       <c r="B127" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15398,25 +15398,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>577823.0208926643</v>
+        <v>577619.0624429594</v>
       </c>
       <c r="R127" t="n">
-        <v>6944675.151490607</v>
+        <v>6944938.738972194</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15498,10 +15498,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111785212</v>
+        <v>111785248</v>
       </c>
       <c r="B128" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15514,21 +15514,21 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -15538,10 +15538,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>577594.6139770675</v>
+        <v>577835.1553672029</v>
       </c>
       <c r="R128" t="n">
-        <v>6945057.386468799</v>
+        <v>6944747.252110518</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15610,10 +15610,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111785239</v>
+        <v>111785193</v>
       </c>
       <c r="B129" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15622,25 +15622,25 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -15650,10 +15650,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>577769.2469415551</v>
+        <v>577575.9394238007</v>
       </c>
       <c r="R129" t="n">
-        <v>6944844.675943938</v>
+        <v>6944851.186223409</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15722,10 +15722,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111785196</v>
+        <v>111785225</v>
       </c>
       <c r="B130" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15734,25 +15734,25 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -15762,10 +15762,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>577807.1996835115</v>
+        <v>577742.0418335226</v>
       </c>
       <c r="R130" t="n">
-        <v>6944602.962691978</v>
+        <v>6944530.994174051</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15834,7 +15834,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111785237</v>
+        <v>111785240</v>
       </c>
       <c r="B131" t="n">
         <v>96348</v>
@@ -15874,10 +15874,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>577541.6974019273</v>
+        <v>577827.3226169772</v>
       </c>
       <c r="R131" t="n">
-        <v>6945053.384041801</v>
+        <v>6944747.067874849</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15946,10 +15946,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111785249</v>
+        <v>111785222</v>
       </c>
       <c r="B132" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15962,21 +15962,21 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>577733.3514479286</v>
+        <v>577817.9552042313</v>
       </c>
       <c r="R132" t="n">
-        <v>6944900.913506362</v>
+        <v>6944616.105901928</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -16058,10 +16058,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111785246</v>
+        <v>111785241</v>
       </c>
       <c r="B133" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -16070,25 +16070,25 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -16098,10 +16098,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>577818.8902223237</v>
+        <v>577823.0208926643</v>
       </c>
       <c r="R133" t="n">
-        <v>6944791.983443609</v>
+        <v>6944675.151490607</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -16170,7 +16170,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111785218</v>
+        <v>111785223</v>
       </c>
       <c r="B134" t="n">
         <v>78578</v>
@@ -16210,10 +16210,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>577777.4147107385</v>
+        <v>577811.1671387866</v>
       </c>
       <c r="R134" t="n">
-        <v>6944830.597507096</v>
+        <v>6944591.08636965</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -16282,10 +16282,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111785215</v>
+        <v>111785194</v>
       </c>
       <c r="B135" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -16294,25 +16294,25 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -16322,10 +16322,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>577573.3984224057</v>
+        <v>577827.9269310302</v>
       </c>
       <c r="R135" t="n">
-        <v>6944998.890149554</v>
+        <v>6944682.172251224</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16394,7 +16394,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111785211</v>
+        <v>111785208</v>
       </c>
       <c r="B136" t="n">
         <v>78578</v>
@@ -16434,10 +16434,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>577681.525001083</v>
+        <v>577539.8790421919</v>
       </c>
       <c r="R136" t="n">
-        <v>6945125.248796649</v>
+        <v>6945032.627663832</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16506,10 +16506,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111785227</v>
+        <v>111785239</v>
       </c>
       <c r="B137" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16518,25 +16518,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -16546,10 +16546,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>577609.3004002962</v>
+        <v>577769.2469415551</v>
       </c>
       <c r="R137" t="n">
-        <v>6944686.704950654</v>
+        <v>6944844.675943938</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16618,7 +16618,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111785220</v>
+        <v>111785226</v>
       </c>
       <c r="B138" t="n">
         <v>78578</v>
@@ -16658,10 +16658,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>577929.7593229595</v>
+        <v>577680.815564253</v>
       </c>
       <c r="R138" t="n">
-        <v>6944625.642482976</v>
+        <v>6944566.386431335</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16730,10 +16730,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111785195</v>
+        <v>111785247</v>
       </c>
       <c r="B139" t="n">
-        <v>78605</v>
+        <v>89419</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16742,25 +16742,25 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>6462</v>
+        <v>1204</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -16770,10 +16770,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>577817.9552042313</v>
+        <v>577741.5837880005</v>
       </c>
       <c r="R139" t="n">
-        <v>6944616.105901928</v>
+        <v>6944884.07477704</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16842,10 +16842,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111785248</v>
+        <v>111785215</v>
       </c>
       <c r="B140" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16858,21 +16858,21 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16882,10 +16882,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>577835.1553672029</v>
+        <v>577573.3984224057</v>
       </c>
       <c r="R140" t="n">
-        <v>6944747.252110518</v>
+        <v>6944998.890149554</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111785224</v>
+        <v>111785211</v>
       </c>
       <c r="B141" t="n">
         <v>78578</v>
@@ -16994,10 +16994,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>577789.1149903627</v>
+        <v>577681.525001083</v>
       </c>
       <c r="R141" t="n">
-        <v>6944587.805691725</v>
+        <v>6945125.248796649</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -17066,7 +17066,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111785216</v>
+        <v>111785227</v>
       </c>
       <c r="B142" t="n">
         <v>78578</v>
@@ -17106,10 +17106,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>577619.0624429594</v>
+        <v>577609.3004002962</v>
       </c>
       <c r="R142" t="n">
-        <v>6944938.738972194</v>
+        <v>6944686.704950654</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17178,7 +17178,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111785222</v>
+        <v>111785221</v>
       </c>
       <c r="B143" t="n">
         <v>78578</v>
@@ -17218,10 +17218,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>577817.9552042313</v>
+        <v>577882.1692875527</v>
       </c>
       <c r="R143" t="n">
-        <v>6944616.105901928</v>
+        <v>6944590.915173424</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17290,7 +17290,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111785210</v>
+        <v>111785220</v>
       </c>
       <c r="B144" t="n">
         <v>78578</v>
@@ -17330,10 +17330,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>577699.3262563417</v>
+        <v>577929.7593229595</v>
       </c>
       <c r="R144" t="n">
-        <v>6945152.363841761</v>
+        <v>6944625.642482976</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17402,10 +17402,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111785213</v>
+        <v>111785236</v>
       </c>
       <c r="B145" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17414,25 +17414,25 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -17442,10 +17442,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>577597.0534766318</v>
+        <v>577572.4076091016</v>
       </c>
       <c r="R145" t="n">
-        <v>6945012.333558927</v>
+        <v>6944824.864356839</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17514,7 +17514,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111785226</v>
+        <v>111785209</v>
       </c>
       <c r="B146" t="n">
         <v>78578</v>
@@ -17554,10 +17554,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>577680.815564253</v>
+        <v>577708.845606568</v>
       </c>
       <c r="R146" t="n">
-        <v>6944566.386431335</v>
+        <v>6945178.823951898</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17626,10 +17626,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111785238</v>
+        <v>111785224</v>
       </c>
       <c r="B147" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17638,25 +17638,25 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>577598.5769079959</v>
+        <v>577789.1149903627</v>
       </c>
       <c r="R147" t="n">
-        <v>6945065.304574955</v>
+        <v>6944587.805691725</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17738,10 +17738,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111785219</v>
+        <v>111785249</v>
       </c>
       <c r="B148" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17754,21 +17754,21 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -17778,10 +17778,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>577815.6496847487</v>
+        <v>577733.3514479286</v>
       </c>
       <c r="R148" t="n">
-        <v>6944812.162249871</v>
+        <v>6944900.913506362</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17850,10 +17850,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111785209</v>
+        <v>111785242</v>
       </c>
       <c r="B149" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -17862,25 +17862,25 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -17890,10 +17890,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>577708.845606568</v>
+        <v>577789.7963988667</v>
       </c>
       <c r="R149" t="n">
-        <v>6945178.823951898</v>
+        <v>6944558.818226521</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17962,10 +17962,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111785236</v>
+        <v>111785195</v>
       </c>
       <c r="B150" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17974,25 +17974,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -18002,10 +18002,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>577572.4076091016</v>
+        <v>577817.9552042313</v>
       </c>
       <c r="R150" t="n">
-        <v>6944824.864356839</v>
+        <v>6944616.105901928</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -18074,7 +18074,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111785225</v>
+        <v>111785218</v>
       </c>
       <c r="B151" t="n">
         <v>78578</v>
@@ -18114,10 +18114,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>577742.0418335226</v>
+        <v>577777.4147107385</v>
       </c>
       <c r="R151" t="n">
-        <v>6944530.994174051</v>
+        <v>6944830.597507096</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -18186,10 +18186,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111785193</v>
+        <v>111785212</v>
       </c>
       <c r="B152" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -18198,25 +18198,25 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -18226,10 +18226,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>577575.9394238007</v>
+        <v>577594.6139770675</v>
       </c>
       <c r="R152" t="n">
-        <v>6944851.186223409</v>
+        <v>6945057.386468799</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18298,7 +18298,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111785223</v>
+        <v>111785210</v>
       </c>
       <c r="B153" t="n">
         <v>78578</v>
@@ -18338,10 +18338,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>577811.1671387866</v>
+        <v>577699.3262563417</v>
       </c>
       <c r="R153" t="n">
-        <v>6944591.08636965</v>
+        <v>6945152.363841761</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18410,7 +18410,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111785240</v>
+        <v>111785237</v>
       </c>
       <c r="B154" t="n">
         <v>96348</v>
@@ -18450,10 +18450,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>577827.3226169772</v>
+        <v>577541.6974019273</v>
       </c>
       <c r="R154" t="n">
-        <v>6944747.067874849</v>
+        <v>6945053.384041801</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18522,10 +18522,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111785194</v>
+        <v>111785213</v>
       </c>
       <c r="B155" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18534,25 +18534,25 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -18562,10 +18562,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>577827.9269310302</v>
+        <v>577597.0534766318</v>
       </c>
       <c r="R155" t="n">
-        <v>6944682.172251224</v>
+        <v>6945012.333558927</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18634,10 +18634,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111785208</v>
+        <v>111785243</v>
       </c>
       <c r="B156" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18646,25 +18646,25 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -18674,10 +18674,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>577539.8790421919</v>
+        <v>577759.6338390541</v>
       </c>
       <c r="R156" t="n">
-        <v>6945032.627663832</v>
+        <v>6944547.520700022</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -18746,10 +18746,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111785221</v>
+        <v>111785196</v>
       </c>
       <c r="B157" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -18758,25 +18758,25 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -18786,10 +18786,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>577882.1692875527</v>
+        <v>577807.1996835115</v>
       </c>
       <c r="R157" t="n">
-        <v>6944590.915173424</v>
+        <v>6944602.962691978</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -18970,7 +18970,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111785243</v>
+        <v>111785238</v>
       </c>
       <c r="B159" t="n">
         <v>96348</v>
@@ -19010,10 +19010,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>577759.6338390541</v>
+        <v>577598.5769079959</v>
       </c>
       <c r="R159" t="n">
-        <v>6944547.520700022</v>
+        <v>6945065.304574955</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -19082,10 +19082,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111785247</v>
+        <v>111785219</v>
       </c>
       <c r="B160" t="n">
-        <v>89419</v>
+        <v>78578</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -19098,21 +19098,21 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -19122,10 +19122,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>577741.5837880005</v>
+        <v>577815.6496847487</v>
       </c>
       <c r="R160" t="n">
-        <v>6944884.07477704</v>
+        <v>6944812.162249871</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19194,10 +19194,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111785242</v>
+        <v>111785246</v>
       </c>
       <c r="B161" t="n">
-        <v>96348</v>
+        <v>73634</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -19206,25 +19206,25 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>220787</v>
+        <v>6426</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
@@ -19234,10 +19234,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>577789.7963988667</v>
+        <v>577818.8902223237</v>
       </c>
       <c r="R161" t="n">
-        <v>6944558.818226521</v>
+        <v>6944791.983443609</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>

--- a/artfynd/A 53495-2020.xlsx
+++ b/artfynd/A 53495-2020.xlsx
@@ -18746,10 +18746,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111785196</v>
+        <v>111785207</v>
       </c>
       <c r="B157" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -18758,25 +18758,25 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -18786,10 +18786,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>577807.1996835115</v>
+        <v>577591.1417373432</v>
       </c>
       <c r="R157" t="n">
-        <v>6944602.962691978</v>
+        <v>6944930.258641767</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -18858,10 +18858,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111785207</v>
+        <v>111785238</v>
       </c>
       <c r="B158" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -18870,25 +18870,25 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -18898,10 +18898,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>577591.1417373432</v>
+        <v>577598.5769079959</v>
       </c>
       <c r="R158" t="n">
-        <v>6944930.258641767</v>
+        <v>6945065.304574955</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -18970,10 +18970,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111785238</v>
+        <v>111785219</v>
       </c>
       <c r="B159" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -18982,25 +18982,25 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -19010,10 +19010,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>577598.5769079959</v>
+        <v>577815.6496847487</v>
       </c>
       <c r="R159" t="n">
-        <v>6945065.304574955</v>
+        <v>6944812.162249871</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -19082,10 +19082,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111785219</v>
+        <v>111785246</v>
       </c>
       <c r="B160" t="n">
-        <v>78578</v>
+        <v>73634</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -19094,25 +19094,25 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>6458</v>
+        <v>6426</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -19122,10 +19122,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>577815.6496847487</v>
+        <v>577818.8902223237</v>
       </c>
       <c r="R160" t="n">
-        <v>6944812.162249871</v>
+        <v>6944791.983443609</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19194,10 +19194,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111785246</v>
+        <v>111785196</v>
       </c>
       <c r="B161" t="n">
-        <v>73634</v>
+        <v>78605</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -19210,21 +19210,21 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>6426</v>
+        <v>6462</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
@@ -19234,10 +19234,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>577818.8902223237</v>
+        <v>577807.1996835115</v>
       </c>
       <c r="R161" t="n">
-        <v>6944791.983443609</v>
+        <v>6944602.962691978</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>

--- a/artfynd/A 53495-2020.xlsx
+++ b/artfynd/A 53495-2020.xlsx
@@ -15386,7 +15386,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111785216</v>
+        <v>111785213</v>
       </c>
       <c r="B127" t="n">
         <v>78578</v>
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>577619.0624429594</v>
+        <v>577597.0534766318</v>
       </c>
       <c r="R127" t="n">
-        <v>6944938.738972194</v>
+        <v>6945012.333558927</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15498,10 +15498,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111785248</v>
+        <v>111785247</v>
       </c>
       <c r="B128" t="n">
-        <v>89423</v>
+        <v>89419</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15514,21 +15514,21 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -15538,10 +15538,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>577835.1553672029</v>
+        <v>577741.5837880005</v>
       </c>
       <c r="R128" t="n">
-        <v>6944747.252110518</v>
+        <v>6944884.07477704</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15610,10 +15610,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111785193</v>
+        <v>111785210</v>
       </c>
       <c r="B129" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15622,25 +15622,25 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -15650,10 +15650,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>577575.9394238007</v>
+        <v>577699.3262563417</v>
       </c>
       <c r="R129" t="n">
-        <v>6944851.186223409</v>
+        <v>6945152.363841761</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15722,7 +15722,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111785225</v>
+        <v>111785227</v>
       </c>
       <c r="B130" t="n">
         <v>78578</v>
@@ -15762,10 +15762,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>577742.0418335226</v>
+        <v>577609.3004002962</v>
       </c>
       <c r="R130" t="n">
-        <v>6944530.994174051</v>
+        <v>6944686.704950654</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15834,10 +15834,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111785240</v>
+        <v>111785208</v>
       </c>
       <c r="B131" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15846,25 +15846,25 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -15874,10 +15874,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>577827.3226169772</v>
+        <v>577539.8790421919</v>
       </c>
       <c r="R131" t="n">
-        <v>6944747.067874849</v>
+        <v>6945032.627663832</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15946,7 +15946,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111785222</v>
+        <v>111785216</v>
       </c>
       <c r="B132" t="n">
         <v>78578</v>
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>577817.9552042313</v>
+        <v>577619.0624429594</v>
       </c>
       <c r="R132" t="n">
-        <v>6944616.105901928</v>
+        <v>6944938.738972194</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -16058,10 +16058,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111785241</v>
+        <v>111785193</v>
       </c>
       <c r="B133" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -16070,25 +16070,25 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -16098,10 +16098,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>577823.0208926643</v>
+        <v>577575.9394238007</v>
       </c>
       <c r="R133" t="n">
-        <v>6944675.151490607</v>
+        <v>6944851.186223409</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -16170,7 +16170,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111785223</v>
+        <v>111785215</v>
       </c>
       <c r="B134" t="n">
         <v>78578</v>
@@ -16210,10 +16210,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>577811.1671387866</v>
+        <v>577573.3984224057</v>
       </c>
       <c r="R134" t="n">
-        <v>6944591.08636965</v>
+        <v>6944998.890149554</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -16282,10 +16282,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111785194</v>
+        <v>111785222</v>
       </c>
       <c r="B135" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -16294,25 +16294,25 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -16322,10 +16322,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>577827.9269310302</v>
+        <v>577817.9552042313</v>
       </c>
       <c r="R135" t="n">
-        <v>6944682.172251224</v>
+        <v>6944616.105901928</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16394,7 +16394,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111785208</v>
+        <v>111785209</v>
       </c>
       <c r="B136" t="n">
         <v>78578</v>
@@ -16434,10 +16434,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>577539.8790421919</v>
+        <v>577708.845606568</v>
       </c>
       <c r="R136" t="n">
-        <v>6945032.627663832</v>
+        <v>6945178.823951898</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16506,10 +16506,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111785239</v>
+        <v>111785196</v>
       </c>
       <c r="B137" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16518,25 +16518,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -16546,10 +16546,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>577769.2469415551</v>
+        <v>577807.1996835115</v>
       </c>
       <c r="R137" t="n">
-        <v>6944844.675943938</v>
+        <v>6944602.962691978</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16618,10 +16618,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111785226</v>
+        <v>111785241</v>
       </c>
       <c r="B138" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16630,25 +16630,25 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -16658,10 +16658,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>577680.815564253</v>
+        <v>577823.0208926643</v>
       </c>
       <c r="R138" t="n">
-        <v>6944566.386431335</v>
+        <v>6944675.151490607</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16730,10 +16730,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111785247</v>
+        <v>111785236</v>
       </c>
       <c r="B139" t="n">
-        <v>89419</v>
+        <v>96348</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16742,25 +16742,25 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1204</v>
+        <v>220787</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -16770,10 +16770,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>577741.5837880005</v>
+        <v>577572.4076091016</v>
       </c>
       <c r="R139" t="n">
-        <v>6944884.07477704</v>
+        <v>6944824.864356839</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16842,10 +16842,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111785215</v>
+        <v>111785240</v>
       </c>
       <c r="B140" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16854,25 +16854,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16882,10 +16882,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>577573.3984224057</v>
+        <v>577827.3226169772</v>
       </c>
       <c r="R140" t="n">
-        <v>6944998.890149554</v>
+        <v>6944747.067874849</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111785211</v>
+        <v>111785221</v>
       </c>
       <c r="B141" t="n">
         <v>78578</v>
@@ -16994,10 +16994,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>577681.525001083</v>
+        <v>577882.1692875527</v>
       </c>
       <c r="R141" t="n">
-        <v>6945125.248796649</v>
+        <v>6944590.915173424</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -17066,10 +17066,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111785227</v>
+        <v>111785238</v>
       </c>
       <c r="B142" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -17078,25 +17078,25 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -17106,10 +17106,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>577609.3004002962</v>
+        <v>577598.5769079959</v>
       </c>
       <c r="R142" t="n">
-        <v>6944686.704950654</v>
+        <v>6945065.304574955</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17178,10 +17178,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111785221</v>
+        <v>111785237</v>
       </c>
       <c r="B143" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17190,25 +17190,25 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -17218,10 +17218,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>577882.1692875527</v>
+        <v>577541.6974019273</v>
       </c>
       <c r="R143" t="n">
-        <v>6944590.915173424</v>
+        <v>6945053.384041801</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17290,7 +17290,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111785220</v>
+        <v>111785223</v>
       </c>
       <c r="B144" t="n">
         <v>78578</v>
@@ -17330,10 +17330,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>577929.7593229595</v>
+        <v>577811.1671387866</v>
       </c>
       <c r="R144" t="n">
-        <v>6944625.642482976</v>
+        <v>6944591.08636965</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17402,10 +17402,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111785236</v>
+        <v>111785195</v>
       </c>
       <c r="B145" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17414,25 +17414,25 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -17442,10 +17442,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>577572.4076091016</v>
+        <v>577817.9552042313</v>
       </c>
       <c r="R145" t="n">
-        <v>6944824.864356839</v>
+        <v>6944616.105901928</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17514,10 +17514,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111785209</v>
+        <v>111785194</v>
       </c>
       <c r="B146" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -17526,25 +17526,25 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -17554,10 +17554,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>577708.845606568</v>
+        <v>577827.9269310302</v>
       </c>
       <c r="R146" t="n">
-        <v>6945178.823951898</v>
+        <v>6944682.172251224</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17626,7 +17626,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111785224</v>
+        <v>111785225</v>
       </c>
       <c r="B147" t="n">
         <v>78578</v>
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>577789.1149903627</v>
+        <v>577742.0418335226</v>
       </c>
       <c r="R147" t="n">
-        <v>6944587.805691725</v>
+        <v>6944530.994174051</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17850,10 +17850,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111785242</v>
+        <v>111785219</v>
       </c>
       <c r="B149" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -17862,25 +17862,25 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -17890,10 +17890,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>577789.7963988667</v>
+        <v>577815.6496847487</v>
       </c>
       <c r="R149" t="n">
-        <v>6944558.818226521</v>
+        <v>6944812.162249871</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17962,10 +17962,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111785195</v>
+        <v>111785242</v>
       </c>
       <c r="B150" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17974,25 +17974,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -18002,10 +18002,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>577817.9552042313</v>
+        <v>577789.7963988667</v>
       </c>
       <c r="R150" t="n">
-        <v>6944616.105901928</v>
+        <v>6944558.818226521</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -18074,10 +18074,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111785218</v>
+        <v>111785246</v>
       </c>
       <c r="B151" t="n">
-        <v>78578</v>
+        <v>73634</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -18086,25 +18086,25 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6458</v>
+        <v>6426</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -18114,10 +18114,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>577777.4147107385</v>
+        <v>577818.8902223237</v>
       </c>
       <c r="R151" t="n">
-        <v>6944830.597507096</v>
+        <v>6944791.983443609</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -18186,7 +18186,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111785212</v>
+        <v>111785207</v>
       </c>
       <c r="B152" t="n">
         <v>78578</v>
@@ -18226,10 +18226,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>577594.6139770675</v>
+        <v>577591.1417373432</v>
       </c>
       <c r="R152" t="n">
-        <v>6945057.386468799</v>
+        <v>6944930.258641767</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18298,7 +18298,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111785210</v>
+        <v>111785212</v>
       </c>
       <c r="B153" t="n">
         <v>78578</v>
@@ -18338,10 +18338,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>577699.3262563417</v>
+        <v>577594.6139770675</v>
       </c>
       <c r="R153" t="n">
-        <v>6945152.363841761</v>
+        <v>6945057.386468799</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18410,10 +18410,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111785237</v>
+        <v>111785248</v>
       </c>
       <c r="B154" t="n">
-        <v>96348</v>
+        <v>89423</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18422,25 +18422,25 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
@@ -18450,10 +18450,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>577541.6974019273</v>
+        <v>577835.1553672029</v>
       </c>
       <c r="R154" t="n">
-        <v>6945053.384041801</v>
+        <v>6944747.252110518</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18522,7 +18522,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111785213</v>
+        <v>111785211</v>
       </c>
       <c r="B155" t="n">
         <v>78578</v>
@@ -18562,10 +18562,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>577597.0534766318</v>
+        <v>577681.525001083</v>
       </c>
       <c r="R155" t="n">
-        <v>6945012.333558927</v>
+        <v>6945125.248796649</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18634,7 +18634,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111785243</v>
+        <v>111785239</v>
       </c>
       <c r="B156" t="n">
         <v>96348</v>
@@ -18674,10 +18674,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>577759.6338390541</v>
+        <v>577769.2469415551</v>
       </c>
       <c r="R156" t="n">
-        <v>6944547.520700022</v>
+        <v>6944844.675943938</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -18746,7 +18746,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111785207</v>
+        <v>111785226</v>
       </c>
       <c r="B157" t="n">
         <v>78578</v>
@@ -18786,10 +18786,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>577591.1417373432</v>
+        <v>577680.815564253</v>
       </c>
       <c r="R157" t="n">
-        <v>6944930.258641767</v>
+        <v>6944566.386431335</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -18858,10 +18858,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111785238</v>
+        <v>111785220</v>
       </c>
       <c r="B158" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -18870,25 +18870,25 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -18898,10 +18898,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>577598.5769079959</v>
+        <v>577929.7593229595</v>
       </c>
       <c r="R158" t="n">
-        <v>6945065.304574955</v>
+        <v>6944625.642482976</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -18970,7 +18970,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111785219</v>
+        <v>111785218</v>
       </c>
       <c r="B159" t="n">
         <v>78578</v>
@@ -19010,10 +19010,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>577815.6496847487</v>
+        <v>577777.4147107385</v>
       </c>
       <c r="R159" t="n">
-        <v>6944812.162249871</v>
+        <v>6944830.597507096</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -19082,10 +19082,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111785246</v>
+        <v>111785224</v>
       </c>
       <c r="B160" t="n">
-        <v>73634</v>
+        <v>78578</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -19094,25 +19094,25 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>6426</v>
+        <v>6458</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -19122,10 +19122,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>577818.8902223237</v>
+        <v>577789.1149903627</v>
       </c>
       <c r="R160" t="n">
-        <v>6944791.983443609</v>
+        <v>6944587.805691725</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19194,10 +19194,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111785196</v>
+        <v>111785243</v>
       </c>
       <c r="B161" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -19206,25 +19206,25 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
@@ -19234,10 +19234,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>577807.1996835115</v>
+        <v>577759.6338390541</v>
       </c>
       <c r="R161" t="n">
-        <v>6944602.962691978</v>
+        <v>6944547.520700022</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>

--- a/artfynd/A 53495-2020.xlsx
+++ b/artfynd/A 53495-2020.xlsx
@@ -15386,7 +15386,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111785213</v>
+        <v>111785227</v>
       </c>
       <c r="B127" t="n">
         <v>78578</v>
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>577597.0534766318</v>
+        <v>577609.3004002962</v>
       </c>
       <c r="R127" t="n">
-        <v>6945012.333558927</v>
+        <v>6944686.704950654</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15498,10 +15498,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111785247</v>
+        <v>111785213</v>
       </c>
       <c r="B128" t="n">
-        <v>89419</v>
+        <v>78578</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15514,21 +15514,21 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -15538,10 +15538,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>577741.5837880005</v>
+        <v>577597.0534766318</v>
       </c>
       <c r="R128" t="n">
-        <v>6944884.07477704</v>
+        <v>6945012.333558927</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15610,10 +15610,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111785210</v>
+        <v>111785247</v>
       </c>
       <c r="B129" t="n">
-        <v>78578</v>
+        <v>89419</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15626,21 +15626,21 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -15650,10 +15650,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>577699.3262563417</v>
+        <v>577741.5837880005</v>
       </c>
       <c r="R129" t="n">
-        <v>6945152.363841761</v>
+        <v>6944884.07477704</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15722,7 +15722,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111785227</v>
+        <v>111785210</v>
       </c>
       <c r="B130" t="n">
         <v>78578</v>
@@ -15762,10 +15762,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>577609.3004002962</v>
+        <v>577699.3262563417</v>
       </c>
       <c r="R130" t="n">
-        <v>6944686.704950654</v>
+        <v>6945152.363841761</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>

--- a/artfynd/A 53495-2020.xlsx
+++ b/artfynd/A 53495-2020.xlsx
@@ -15386,10 +15386,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111785227</v>
+        <v>111785246</v>
       </c>
       <c r="B127" t="n">
-        <v>78578</v>
+        <v>73634</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15398,25 +15398,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>6458</v>
+        <v>6426</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>577609.3004002962</v>
+        <v>577818.8902223237</v>
       </c>
       <c r="R127" t="n">
-        <v>6944686.704950654</v>
+        <v>6944791.983443609</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15498,10 +15498,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111785213</v>
+        <v>111785243</v>
       </c>
       <c r="B128" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15510,25 +15510,25 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -15538,10 +15538,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>577597.0534766318</v>
+        <v>577759.6338390541</v>
       </c>
       <c r="R128" t="n">
-        <v>6945012.333558927</v>
+        <v>6944547.520700022</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15610,10 +15610,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111785247</v>
+        <v>111785218</v>
       </c>
       <c r="B129" t="n">
-        <v>89419</v>
+        <v>78578</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15626,21 +15626,21 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -15650,10 +15650,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>577741.5837880005</v>
+        <v>577777.4147107385</v>
       </c>
       <c r="R129" t="n">
-        <v>6944884.07477704</v>
+        <v>6944830.597507096</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15722,10 +15722,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111785210</v>
+        <v>111785247</v>
       </c>
       <c r="B130" t="n">
-        <v>78578</v>
+        <v>89419</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15738,21 +15738,21 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -15762,10 +15762,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>577699.3262563417</v>
+        <v>577741.5837880005</v>
       </c>
       <c r="R130" t="n">
-        <v>6945152.363841761</v>
+        <v>6944884.07477704</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15834,10 +15834,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111785208</v>
+        <v>111785237</v>
       </c>
       <c r="B131" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15846,25 +15846,25 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -15874,10 +15874,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>577539.8790421919</v>
+        <v>577541.6974019273</v>
       </c>
       <c r="R131" t="n">
-        <v>6945032.627663832</v>
+        <v>6945053.384041801</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15946,10 +15946,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111785216</v>
+        <v>111785240</v>
       </c>
       <c r="B132" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15958,25 +15958,25 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>577619.0624429594</v>
+        <v>577827.3226169772</v>
       </c>
       <c r="R132" t="n">
-        <v>6944938.738972194</v>
+        <v>6944747.067874849</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -16058,10 +16058,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111785193</v>
+        <v>111785239</v>
       </c>
       <c r="B133" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -16070,25 +16070,25 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -16098,10 +16098,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>577575.9394238007</v>
+        <v>577769.2469415551</v>
       </c>
       <c r="R133" t="n">
-        <v>6944851.186223409</v>
+        <v>6944844.675943938</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -16170,10 +16170,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111785215</v>
+        <v>111785248</v>
       </c>
       <c r="B134" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -16186,21 +16186,21 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -16210,10 +16210,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>577573.3984224057</v>
+        <v>577835.1553672029</v>
       </c>
       <c r="R134" t="n">
-        <v>6944998.890149554</v>
+        <v>6944747.252110518</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -16282,7 +16282,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111785222</v>
+        <v>111785224</v>
       </c>
       <c r="B135" t="n">
         <v>78578</v>
@@ -16322,10 +16322,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>577817.9552042313</v>
+        <v>577789.1149903627</v>
       </c>
       <c r="R135" t="n">
-        <v>6944616.105901928</v>
+        <v>6944587.805691725</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16394,7 +16394,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111785209</v>
+        <v>111785227</v>
       </c>
       <c r="B136" t="n">
         <v>78578</v>
@@ -16434,10 +16434,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>577708.845606568</v>
+        <v>577609.3004002962</v>
       </c>
       <c r="R136" t="n">
-        <v>6945178.823951898</v>
+        <v>6944686.704950654</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16506,10 +16506,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111785196</v>
+        <v>111785211</v>
       </c>
       <c r="B137" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16518,25 +16518,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -16546,10 +16546,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>577807.1996835115</v>
+        <v>577681.525001083</v>
       </c>
       <c r="R137" t="n">
-        <v>6944602.962691978</v>
+        <v>6945125.248796649</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16618,10 +16618,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111785241</v>
+        <v>111785196</v>
       </c>
       <c r="B138" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16630,25 +16630,25 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -16658,10 +16658,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>577823.0208926643</v>
+        <v>577807.1996835115</v>
       </c>
       <c r="R138" t="n">
-        <v>6944675.151490607</v>
+        <v>6944602.962691978</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16730,10 +16730,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111785236</v>
+        <v>111785219</v>
       </c>
       <c r="B139" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16742,25 +16742,25 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -16770,10 +16770,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>577572.4076091016</v>
+        <v>577815.6496847487</v>
       </c>
       <c r="R139" t="n">
-        <v>6944824.864356839</v>
+        <v>6944812.162249871</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16842,10 +16842,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111785240</v>
+        <v>111785223</v>
       </c>
       <c r="B140" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16854,25 +16854,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16882,10 +16882,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>577827.3226169772</v>
+        <v>577811.1671387866</v>
       </c>
       <c r="R140" t="n">
-        <v>6944747.067874849</v>
+        <v>6944591.08636965</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111785221</v>
+        <v>111785212</v>
       </c>
       <c r="B141" t="n">
         <v>78578</v>
@@ -16994,10 +16994,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>577882.1692875527</v>
+        <v>577594.6139770675</v>
       </c>
       <c r="R141" t="n">
-        <v>6944590.915173424</v>
+        <v>6945057.386468799</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -17066,10 +17066,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111785238</v>
+        <v>111785220</v>
       </c>
       <c r="B142" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -17078,25 +17078,25 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -17106,10 +17106,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>577598.5769079959</v>
+        <v>577929.7593229595</v>
       </c>
       <c r="R142" t="n">
-        <v>6945065.304574955</v>
+        <v>6944625.642482976</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17178,7 +17178,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111785237</v>
+        <v>111785238</v>
       </c>
       <c r="B143" t="n">
         <v>96348</v>
@@ -17218,10 +17218,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>577541.6974019273</v>
+        <v>577598.5769079959</v>
       </c>
       <c r="R143" t="n">
-        <v>6945053.384041801</v>
+        <v>6945065.304574955</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17290,7 +17290,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111785223</v>
+        <v>111785226</v>
       </c>
       <c r="B144" t="n">
         <v>78578</v>
@@ -17330,10 +17330,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>577811.1671387866</v>
+        <v>577680.815564253</v>
       </c>
       <c r="R144" t="n">
-        <v>6944591.08636965</v>
+        <v>6944566.386431335</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17402,10 +17402,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111785195</v>
+        <v>111785222</v>
       </c>
       <c r="B145" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17414,25 +17414,25 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -17514,7 +17514,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111785194</v>
+        <v>111785195</v>
       </c>
       <c r="B146" t="n">
         <v>78605</v>
@@ -17554,10 +17554,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>577827.9269310302</v>
+        <v>577817.9552042313</v>
       </c>
       <c r="R146" t="n">
-        <v>6944682.172251224</v>
+        <v>6944616.105901928</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17626,7 +17626,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111785225</v>
+        <v>111785221</v>
       </c>
       <c r="B147" t="n">
         <v>78578</v>
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>577742.0418335226</v>
+        <v>577882.1692875527</v>
       </c>
       <c r="R147" t="n">
-        <v>6944530.994174051</v>
+        <v>6944590.915173424</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17738,10 +17738,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111785249</v>
+        <v>111785193</v>
       </c>
       <c r="B148" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17750,25 +17750,25 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -17778,10 +17778,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>577733.3514479286</v>
+        <v>577575.9394238007</v>
       </c>
       <c r="R148" t="n">
-        <v>6944900.913506362</v>
+        <v>6944851.186223409</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17850,7 +17850,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111785219</v>
+        <v>111785209</v>
       </c>
       <c r="B149" t="n">
         <v>78578</v>
@@ -17890,10 +17890,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>577815.6496847487</v>
+        <v>577708.845606568</v>
       </c>
       <c r="R149" t="n">
-        <v>6944812.162249871</v>
+        <v>6945178.823951898</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17962,10 +17962,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111785242</v>
+        <v>111785215</v>
       </c>
       <c r="B150" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17974,25 +17974,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -18002,10 +18002,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>577789.7963988667</v>
+        <v>577573.3984224057</v>
       </c>
       <c r="R150" t="n">
-        <v>6944558.818226521</v>
+        <v>6944998.890149554</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -18074,10 +18074,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111785246</v>
+        <v>111785242</v>
       </c>
       <c r="B151" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -18086,25 +18086,25 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -18114,10 +18114,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>577818.8902223237</v>
+        <v>577789.7963988667</v>
       </c>
       <c r="R151" t="n">
-        <v>6944791.983443609</v>
+        <v>6944558.818226521</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -18186,7 +18186,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111785207</v>
+        <v>111785216</v>
       </c>
       <c r="B152" t="n">
         <v>78578</v>
@@ -18226,10 +18226,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>577591.1417373432</v>
+        <v>577619.0624429594</v>
       </c>
       <c r="R152" t="n">
-        <v>6944930.258641767</v>
+        <v>6944938.738972194</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18298,7 +18298,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111785212</v>
+        <v>111785207</v>
       </c>
       <c r="B153" t="n">
         <v>78578</v>
@@ -18338,10 +18338,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>577594.6139770675</v>
+        <v>577591.1417373432</v>
       </c>
       <c r="R153" t="n">
-        <v>6945057.386468799</v>
+        <v>6944930.258641767</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18410,10 +18410,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111785248</v>
+        <v>111785225</v>
       </c>
       <c r="B154" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18426,21 +18426,21 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
@@ -18450,10 +18450,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>577835.1553672029</v>
+        <v>577742.0418335226</v>
       </c>
       <c r="R154" t="n">
-        <v>6944747.252110518</v>
+        <v>6944530.994174051</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18522,10 +18522,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111785211</v>
+        <v>111785241</v>
       </c>
       <c r="B155" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18534,25 +18534,25 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -18562,10 +18562,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>577681.525001083</v>
+        <v>577823.0208926643</v>
       </c>
       <c r="R155" t="n">
-        <v>6945125.248796649</v>
+        <v>6944675.151490607</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18634,10 +18634,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111785239</v>
+        <v>111785194</v>
       </c>
       <c r="B156" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18646,25 +18646,25 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -18674,10 +18674,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>577769.2469415551</v>
+        <v>577827.9269310302</v>
       </c>
       <c r="R156" t="n">
-        <v>6944844.675943938</v>
+        <v>6944682.172251224</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -18746,7 +18746,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111785226</v>
+        <v>111785213</v>
       </c>
       <c r="B157" t="n">
         <v>78578</v>
@@ -18786,10 +18786,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>577680.815564253</v>
+        <v>577597.0534766318</v>
       </c>
       <c r="R157" t="n">
-        <v>6944566.386431335</v>
+        <v>6945012.333558927</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -18858,10 +18858,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111785220</v>
+        <v>111785236</v>
       </c>
       <c r="B158" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -18870,25 +18870,25 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -18898,10 +18898,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>577929.7593229595</v>
+        <v>577572.4076091016</v>
       </c>
       <c r="R158" t="n">
-        <v>6944625.642482976</v>
+        <v>6944824.864356839</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -18970,7 +18970,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111785218</v>
+        <v>111785210</v>
       </c>
       <c r="B159" t="n">
         <v>78578</v>
@@ -19010,10 +19010,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>577777.4147107385</v>
+        <v>577699.3262563417</v>
       </c>
       <c r="R159" t="n">
-        <v>6944830.597507096</v>
+        <v>6945152.363841761</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -19082,10 +19082,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111785224</v>
+        <v>111785249</v>
       </c>
       <c r="B160" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -19098,21 +19098,21 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -19122,10 +19122,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>577789.1149903627</v>
+        <v>577733.3514479286</v>
       </c>
       <c r="R160" t="n">
-        <v>6944587.805691725</v>
+        <v>6944900.913506362</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19194,10 +19194,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111785243</v>
+        <v>111785208</v>
       </c>
       <c r="B161" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -19206,25 +19206,25 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
@@ -19234,10 +19234,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>577759.6338390541</v>
+        <v>577539.8790421919</v>
       </c>
       <c r="R161" t="n">
-        <v>6944547.520700022</v>
+        <v>6945032.627663832</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>

--- a/artfynd/A 53495-2020.xlsx
+++ b/artfynd/A 53495-2020.xlsx
@@ -15386,10 +15386,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111785246</v>
+        <v>111785195</v>
       </c>
       <c r="B127" t="n">
-        <v>73634</v>
+        <v>78605</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15402,21 +15402,21 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>6426</v>
+        <v>6462</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>577818.8902223237</v>
+        <v>577817.9552042313</v>
       </c>
       <c r="R127" t="n">
-        <v>6944791.983443609</v>
+        <v>6944616.105901928</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15498,10 +15498,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111785243</v>
+        <v>111785194</v>
       </c>
       <c r="B128" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15510,25 +15510,25 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -15538,10 +15538,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>577759.6338390541</v>
+        <v>577827.9269310302</v>
       </c>
       <c r="R128" t="n">
-        <v>6944547.520700022</v>
+        <v>6944682.172251224</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15610,10 +15610,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111785218</v>
+        <v>111785237</v>
       </c>
       <c r="B129" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15622,25 +15622,25 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -15650,10 +15650,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>577777.4147107385</v>
+        <v>577541.6974019273</v>
       </c>
       <c r="R129" t="n">
-        <v>6944830.597507096</v>
+        <v>6945053.384041801</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15722,10 +15722,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111785247</v>
+        <v>111785215</v>
       </c>
       <c r="B130" t="n">
-        <v>89419</v>
+        <v>78578</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15738,21 +15738,21 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -15762,10 +15762,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>577741.5837880005</v>
+        <v>577573.3984224057</v>
       </c>
       <c r="R130" t="n">
-        <v>6944884.07477704</v>
+        <v>6944998.890149554</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15834,7 +15834,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111785237</v>
+        <v>111785240</v>
       </c>
       <c r="B131" t="n">
         <v>96348</v>
@@ -15874,10 +15874,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>577541.6974019273</v>
+        <v>577827.3226169772</v>
       </c>
       <c r="R131" t="n">
-        <v>6945053.384041801</v>
+        <v>6944747.067874849</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15946,10 +15946,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111785240</v>
+        <v>111785222</v>
       </c>
       <c r="B132" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15958,25 +15958,25 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>577827.3226169772</v>
+        <v>577817.9552042313</v>
       </c>
       <c r="R132" t="n">
-        <v>6944747.067874849</v>
+        <v>6944616.105901928</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -16058,10 +16058,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111785239</v>
+        <v>111785221</v>
       </c>
       <c r="B133" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -16070,25 +16070,25 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -16098,10 +16098,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>577769.2469415551</v>
+        <v>577882.1692875527</v>
       </c>
       <c r="R133" t="n">
-        <v>6944844.675943938</v>
+        <v>6944590.915173424</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -16170,10 +16170,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111785248</v>
+        <v>111785226</v>
       </c>
       <c r="B134" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -16186,21 +16186,21 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -16210,10 +16210,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>577835.1553672029</v>
+        <v>577680.815564253</v>
       </c>
       <c r="R134" t="n">
-        <v>6944747.252110518</v>
+        <v>6944566.386431335</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -16282,10 +16282,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111785224</v>
+        <v>111785241</v>
       </c>
       <c r="B135" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -16294,25 +16294,25 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -16322,10 +16322,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>577789.1149903627</v>
+        <v>577823.0208926643</v>
       </c>
       <c r="R135" t="n">
-        <v>6944587.805691725</v>
+        <v>6944675.151490607</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16394,10 +16394,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111785227</v>
+        <v>111785243</v>
       </c>
       <c r="B136" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -16406,25 +16406,25 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -16434,10 +16434,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>577609.3004002962</v>
+        <v>577759.6338390541</v>
       </c>
       <c r="R136" t="n">
-        <v>6944686.704950654</v>
+        <v>6944547.520700022</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16506,10 +16506,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111785211</v>
+        <v>111785249</v>
       </c>
       <c r="B137" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16522,21 +16522,21 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -16546,10 +16546,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>577681.525001083</v>
+        <v>577733.3514479286</v>
       </c>
       <c r="R137" t="n">
-        <v>6945125.248796649</v>
+        <v>6944900.913506362</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16618,10 +16618,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111785196</v>
+        <v>111785209</v>
       </c>
       <c r="B138" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16630,25 +16630,25 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -16658,10 +16658,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>577807.1996835115</v>
+        <v>577708.845606568</v>
       </c>
       <c r="R138" t="n">
-        <v>6944602.962691978</v>
+        <v>6945178.823951898</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16842,10 +16842,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111785223</v>
+        <v>111785236</v>
       </c>
       <c r="B140" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16854,25 +16854,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16882,10 +16882,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>577811.1671387866</v>
+        <v>577572.4076091016</v>
       </c>
       <c r="R140" t="n">
-        <v>6944591.08636965</v>
+        <v>6944824.864356839</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16954,10 +16954,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111785212</v>
+        <v>111785238</v>
       </c>
       <c r="B141" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16966,25 +16966,25 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -16994,10 +16994,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>577594.6139770675</v>
+        <v>577598.5769079959</v>
       </c>
       <c r="R141" t="n">
-        <v>6945057.386468799</v>
+        <v>6945065.304574955</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -17066,7 +17066,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111785220</v>
+        <v>111785218</v>
       </c>
       <c r="B142" t="n">
         <v>78578</v>
@@ -17106,10 +17106,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>577929.7593229595</v>
+        <v>577777.4147107385</v>
       </c>
       <c r="R142" t="n">
-        <v>6944625.642482976</v>
+        <v>6944830.597507096</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17178,10 +17178,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111785238</v>
+        <v>111785207</v>
       </c>
       <c r="B143" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17190,25 +17190,25 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -17218,10 +17218,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>577598.5769079959</v>
+        <v>577591.1417373432</v>
       </c>
       <c r="R143" t="n">
-        <v>6945065.304574955</v>
+        <v>6944930.258641767</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17290,10 +17290,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111785226</v>
+        <v>111785239</v>
       </c>
       <c r="B144" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17302,25 +17302,25 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -17330,10 +17330,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>577680.815564253</v>
+        <v>577769.2469415551</v>
       </c>
       <c r="R144" t="n">
-        <v>6944566.386431335</v>
+        <v>6944844.675943938</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17402,7 +17402,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111785222</v>
+        <v>111785220</v>
       </c>
       <c r="B145" t="n">
         <v>78578</v>
@@ -17442,10 +17442,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>577817.9552042313</v>
+        <v>577929.7593229595</v>
       </c>
       <c r="R145" t="n">
-        <v>6944616.105901928</v>
+        <v>6944625.642482976</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17514,10 +17514,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111785195</v>
+        <v>111785242</v>
       </c>
       <c r="B146" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -17526,25 +17526,25 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -17554,10 +17554,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>577817.9552042313</v>
+        <v>577789.7963988667</v>
       </c>
       <c r="R146" t="n">
-        <v>6944616.105901928</v>
+        <v>6944558.818226521</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17626,10 +17626,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111785221</v>
+        <v>111785196</v>
       </c>
       <c r="B147" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17638,25 +17638,25 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>577882.1692875527</v>
+        <v>577807.1996835115</v>
       </c>
       <c r="R147" t="n">
-        <v>6944590.915173424</v>
+        <v>6944602.962691978</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17738,10 +17738,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111785193</v>
+        <v>111785224</v>
       </c>
       <c r="B148" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17750,25 +17750,25 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -17778,10 +17778,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>577575.9394238007</v>
+        <v>577789.1149903627</v>
       </c>
       <c r="R148" t="n">
-        <v>6944851.186223409</v>
+        <v>6944587.805691725</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17850,7 +17850,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111785209</v>
+        <v>111785210</v>
       </c>
       <c r="B149" t="n">
         <v>78578</v>
@@ -17890,10 +17890,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>577708.845606568</v>
+        <v>577699.3262563417</v>
       </c>
       <c r="R149" t="n">
-        <v>6945178.823951898</v>
+        <v>6945152.363841761</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17962,7 +17962,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111785215</v>
+        <v>111785211</v>
       </c>
       <c r="B150" t="n">
         <v>78578</v>
@@ -18002,10 +18002,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>577573.3984224057</v>
+        <v>577681.525001083</v>
       </c>
       <c r="R150" t="n">
-        <v>6944998.890149554</v>
+        <v>6945125.248796649</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -18074,10 +18074,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111785242</v>
+        <v>111785212</v>
       </c>
       <c r="B151" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -18086,25 +18086,25 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -18114,10 +18114,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>577789.7963988667</v>
+        <v>577594.6139770675</v>
       </c>
       <c r="R151" t="n">
-        <v>6944558.818226521</v>
+        <v>6945057.386468799</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -18186,7 +18186,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111785216</v>
+        <v>111785213</v>
       </c>
       <c r="B152" t="n">
         <v>78578</v>
@@ -18226,10 +18226,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>577619.0624429594</v>
+        <v>577597.0534766318</v>
       </c>
       <c r="R152" t="n">
-        <v>6944938.738972194</v>
+        <v>6945012.333558927</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18298,10 +18298,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111785207</v>
+        <v>111785246</v>
       </c>
       <c r="B153" t="n">
-        <v>78578</v>
+        <v>73634</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -18310,25 +18310,25 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>6458</v>
+        <v>6426</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
@@ -18338,10 +18338,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>577591.1417373432</v>
+        <v>577818.8902223237</v>
       </c>
       <c r="R153" t="n">
-        <v>6944930.258641767</v>
+        <v>6944791.983443609</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18410,10 +18410,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111785225</v>
+        <v>111785247</v>
       </c>
       <c r="B154" t="n">
-        <v>78578</v>
+        <v>89419</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18426,21 +18426,21 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
@@ -18450,10 +18450,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>577742.0418335226</v>
+        <v>577741.5837880005</v>
       </c>
       <c r="R154" t="n">
-        <v>6944530.994174051</v>
+        <v>6944884.07477704</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18522,10 +18522,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111785241</v>
+        <v>111785225</v>
       </c>
       <c r="B155" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18534,25 +18534,25 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -18562,10 +18562,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>577823.0208926643</v>
+        <v>577742.0418335226</v>
       </c>
       <c r="R155" t="n">
-        <v>6944675.151490607</v>
+        <v>6944530.994174051</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18634,10 +18634,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111785194</v>
+        <v>111785223</v>
       </c>
       <c r="B156" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18646,25 +18646,25 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -18674,10 +18674,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>577827.9269310302</v>
+        <v>577811.1671387866</v>
       </c>
       <c r="R156" t="n">
-        <v>6944682.172251224</v>
+        <v>6944591.08636965</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -18746,10 +18746,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111785213</v>
+        <v>111785193</v>
       </c>
       <c r="B157" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -18758,25 +18758,25 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -18786,10 +18786,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>577597.0534766318</v>
+        <v>577575.9394238007</v>
       </c>
       <c r="R157" t="n">
-        <v>6945012.333558927</v>
+        <v>6944851.186223409</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -18858,10 +18858,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111785236</v>
+        <v>111785248</v>
       </c>
       <c r="B158" t="n">
-        <v>96348</v>
+        <v>89423</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -18870,25 +18870,25 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -18898,10 +18898,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>577572.4076091016</v>
+        <v>577835.1553672029</v>
       </c>
       <c r="R158" t="n">
-        <v>6944824.864356839</v>
+        <v>6944747.252110518</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -18970,7 +18970,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111785210</v>
+        <v>111785216</v>
       </c>
       <c r="B159" t="n">
         <v>78578</v>
@@ -19010,10 +19010,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>577699.3262563417</v>
+        <v>577619.0624429594</v>
       </c>
       <c r="R159" t="n">
-        <v>6945152.363841761</v>
+        <v>6944938.738972194</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -19082,10 +19082,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111785249</v>
+        <v>111785208</v>
       </c>
       <c r="B160" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -19098,21 +19098,21 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -19122,10 +19122,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>577733.3514479286</v>
+        <v>577539.8790421919</v>
       </c>
       <c r="R160" t="n">
-        <v>6944900.913506362</v>
+        <v>6945032.627663832</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19194,7 +19194,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111785208</v>
+        <v>111785227</v>
       </c>
       <c r="B161" t="n">
         <v>78578</v>
@@ -19234,10 +19234,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>577539.8790421919</v>
+        <v>577609.3004002962</v>
       </c>
       <c r="R161" t="n">
-        <v>6945032.627663832</v>
+        <v>6944686.704950654</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>

--- a/artfynd/A 53495-2020.xlsx
+++ b/artfynd/A 53495-2020.xlsx
@@ -15386,7 +15386,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111785195</v>
+        <v>111785194</v>
       </c>
       <c r="B127" t="n">
         <v>78605</v>
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>577817.9552042313</v>
+        <v>577827.9269310302</v>
       </c>
       <c r="R127" t="n">
-        <v>6944616.105901928</v>
+        <v>6944682.172251224</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15498,10 +15498,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111785194</v>
+        <v>111785237</v>
       </c>
       <c r="B128" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15510,25 +15510,25 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -15538,10 +15538,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>577827.9269310302</v>
+        <v>577541.6974019273</v>
       </c>
       <c r="R128" t="n">
-        <v>6944682.172251224</v>
+        <v>6945053.384041801</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15610,10 +15610,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111785237</v>
+        <v>111785195</v>
       </c>
       <c r="B129" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15622,25 +15622,25 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -15650,10 +15650,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>577541.6974019273</v>
+        <v>577817.9552042313</v>
       </c>
       <c r="R129" t="n">
-        <v>6945053.384041801</v>
+        <v>6944616.105901928</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -16282,10 +16282,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111785241</v>
+        <v>111785219</v>
       </c>
       <c r="B135" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -16294,25 +16294,25 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -16322,10 +16322,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>577823.0208926643</v>
+        <v>577815.6496847487</v>
       </c>
       <c r="R135" t="n">
-        <v>6944675.151490607</v>
+        <v>6944812.162249871</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16618,10 +16618,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111785209</v>
+        <v>111785241</v>
       </c>
       <c r="B138" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16630,25 +16630,25 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -16658,10 +16658,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>577708.845606568</v>
+        <v>577823.0208926643</v>
       </c>
       <c r="R138" t="n">
-        <v>6945178.823951898</v>
+        <v>6944675.151490607</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16730,7 +16730,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111785219</v>
+        <v>111785209</v>
       </c>
       <c r="B139" t="n">
         <v>78578</v>
@@ -16770,10 +16770,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>577815.6496847487</v>
+        <v>577708.845606568</v>
       </c>
       <c r="R139" t="n">
-        <v>6944812.162249871</v>
+        <v>6945178.823951898</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16842,10 +16842,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111785236</v>
+        <v>111785207</v>
       </c>
       <c r="B140" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16854,25 +16854,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16882,10 +16882,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>577572.4076091016</v>
+        <v>577591.1417373432</v>
       </c>
       <c r="R140" t="n">
-        <v>6944824.864356839</v>
+        <v>6944930.258641767</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111785238</v>
+        <v>111785239</v>
       </c>
       <c r="B141" t="n">
         <v>96348</v>
@@ -16994,10 +16994,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>577598.5769079959</v>
+        <v>577769.2469415551</v>
       </c>
       <c r="R141" t="n">
-        <v>6945065.304574955</v>
+        <v>6944844.675943938</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -17066,7 +17066,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111785218</v>
+        <v>111785220</v>
       </c>
       <c r="B142" t="n">
         <v>78578</v>
@@ -17106,10 +17106,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>577777.4147107385</v>
+        <v>577929.7593229595</v>
       </c>
       <c r="R142" t="n">
-        <v>6944830.597507096</v>
+        <v>6944625.642482976</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17178,10 +17178,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111785207</v>
+        <v>111785236</v>
       </c>
       <c r="B143" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17190,25 +17190,25 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -17218,10 +17218,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>577591.1417373432</v>
+        <v>577572.4076091016</v>
       </c>
       <c r="R143" t="n">
-        <v>6944930.258641767</v>
+        <v>6944824.864356839</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17290,7 +17290,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111785239</v>
+        <v>111785238</v>
       </c>
       <c r="B144" t="n">
         <v>96348</v>
@@ -17330,10 +17330,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>577769.2469415551</v>
+        <v>577598.5769079959</v>
       </c>
       <c r="R144" t="n">
-        <v>6944844.675943938</v>
+        <v>6945065.304574955</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17402,7 +17402,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111785220</v>
+        <v>111785218</v>
       </c>
       <c r="B145" t="n">
         <v>78578</v>
@@ -17442,10 +17442,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>577929.7593229595</v>
+        <v>577777.4147107385</v>
       </c>
       <c r="R145" t="n">
-        <v>6944625.642482976</v>
+        <v>6944830.597507096</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>

--- a/artfynd/A 53495-2020.xlsx
+++ b/artfynd/A 53495-2020.xlsx
@@ -15386,7 +15386,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111785194</v>
+        <v>111785195</v>
       </c>
       <c r="B127" t="n">
         <v>78605</v>
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>577827.9269310302</v>
+        <v>577817.9552042313</v>
       </c>
       <c r="R127" t="n">
-        <v>6944682.172251224</v>
+        <v>6944616.105901928</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15498,10 +15498,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111785237</v>
+        <v>111785209</v>
       </c>
       <c r="B128" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15510,25 +15510,25 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -15538,10 +15538,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>577541.6974019273</v>
+        <v>577708.845606568</v>
       </c>
       <c r="R128" t="n">
-        <v>6945053.384041801</v>
+        <v>6945178.823951898</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15610,10 +15610,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111785195</v>
+        <v>111785222</v>
       </c>
       <c r="B129" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15622,25 +15622,25 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -15722,7 +15722,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111785215</v>
+        <v>111785223</v>
       </c>
       <c r="B130" t="n">
         <v>78578</v>
@@ -15762,10 +15762,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>577573.3984224057</v>
+        <v>577811.1671387866</v>
       </c>
       <c r="R130" t="n">
-        <v>6944998.890149554</v>
+        <v>6944591.08636965</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15834,7 +15834,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111785240</v>
+        <v>111785241</v>
       </c>
       <c r="B131" t="n">
         <v>96348</v>
@@ -15874,10 +15874,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>577827.3226169772</v>
+        <v>577823.0208926643</v>
       </c>
       <c r="R131" t="n">
-        <v>6944747.067874849</v>
+        <v>6944675.151490607</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15946,10 +15946,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111785222</v>
+        <v>111785248</v>
       </c>
       <c r="B132" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15962,21 +15962,21 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>577817.9552042313</v>
+        <v>577835.1553672029</v>
       </c>
       <c r="R132" t="n">
-        <v>6944616.105901928</v>
+        <v>6944747.252110518</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -16058,7 +16058,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111785221</v>
+        <v>111785218</v>
       </c>
       <c r="B133" t="n">
         <v>78578</v>
@@ -16098,10 +16098,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>577882.1692875527</v>
+        <v>577777.4147107385</v>
       </c>
       <c r="R133" t="n">
-        <v>6944590.915173424</v>
+        <v>6944830.597507096</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -16170,10 +16170,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111785226</v>
+        <v>111785193</v>
       </c>
       <c r="B134" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -16182,25 +16182,25 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -16210,10 +16210,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>577680.815564253</v>
+        <v>577575.9394238007</v>
       </c>
       <c r="R134" t="n">
-        <v>6944566.386431335</v>
+        <v>6944851.186223409</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -16282,7 +16282,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111785219</v>
+        <v>111785212</v>
       </c>
       <c r="B135" t="n">
         <v>78578</v>
@@ -16322,10 +16322,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>577815.6496847487</v>
+        <v>577594.6139770675</v>
       </c>
       <c r="R135" t="n">
-        <v>6944812.162249871</v>
+        <v>6945057.386468799</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16394,10 +16394,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111785243</v>
+        <v>111785226</v>
       </c>
       <c r="B136" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -16406,25 +16406,25 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -16434,10 +16434,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>577759.6338390541</v>
+        <v>577680.815564253</v>
       </c>
       <c r="R136" t="n">
-        <v>6944547.520700022</v>
+        <v>6944566.386431335</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16506,10 +16506,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111785249</v>
+        <v>111785242</v>
       </c>
       <c r="B137" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16518,25 +16518,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -16546,10 +16546,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>577733.3514479286</v>
+        <v>577789.7963988667</v>
       </c>
       <c r="R137" t="n">
-        <v>6944900.913506362</v>
+        <v>6944558.818226521</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16618,10 +16618,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111785241</v>
+        <v>111785216</v>
       </c>
       <c r="B138" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16630,25 +16630,25 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -16658,10 +16658,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>577823.0208926643</v>
+        <v>577619.0624429594</v>
       </c>
       <c r="R138" t="n">
-        <v>6944675.151490607</v>
+        <v>6944938.738972194</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16730,7 +16730,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111785209</v>
+        <v>111785215</v>
       </c>
       <c r="B139" t="n">
         <v>78578</v>
@@ -16770,10 +16770,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>577708.845606568</v>
+        <v>577573.3984224057</v>
       </c>
       <c r="R139" t="n">
-        <v>6945178.823951898</v>
+        <v>6944998.890149554</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16842,10 +16842,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111785207</v>
+        <v>111785247</v>
       </c>
       <c r="B140" t="n">
-        <v>78578</v>
+        <v>89419</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16858,21 +16858,21 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16882,10 +16882,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>577591.1417373432</v>
+        <v>577741.5837880005</v>
       </c>
       <c r="R140" t="n">
-        <v>6944930.258641767</v>
+        <v>6944884.07477704</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16954,10 +16954,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111785239</v>
+        <v>111785207</v>
       </c>
       <c r="B141" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16966,25 +16966,25 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -16994,10 +16994,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>577769.2469415551</v>
+        <v>577591.1417373432</v>
       </c>
       <c r="R141" t="n">
-        <v>6944844.675943938</v>
+        <v>6944930.258641767</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -17066,7 +17066,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111785220</v>
+        <v>111785210</v>
       </c>
       <c r="B142" t="n">
         <v>78578</v>
@@ -17106,10 +17106,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>577929.7593229595</v>
+        <v>577699.3262563417</v>
       </c>
       <c r="R142" t="n">
-        <v>6944625.642482976</v>
+        <v>6945152.363841761</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17178,10 +17178,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111785236</v>
+        <v>111785224</v>
       </c>
       <c r="B143" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17190,25 +17190,25 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -17218,10 +17218,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>577572.4076091016</v>
+        <v>577789.1149903627</v>
       </c>
       <c r="R143" t="n">
-        <v>6944824.864356839</v>
+        <v>6944587.805691725</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17290,10 +17290,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111785238</v>
+        <v>111785196</v>
       </c>
       <c r="B144" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17302,25 +17302,25 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -17330,10 +17330,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>577598.5769079959</v>
+        <v>577807.1996835115</v>
       </c>
       <c r="R144" t="n">
-        <v>6945065.304574955</v>
+        <v>6944602.962691978</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17402,7 +17402,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111785218</v>
+        <v>111785211</v>
       </c>
       <c r="B145" t="n">
         <v>78578</v>
@@ -17442,10 +17442,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>577777.4147107385</v>
+        <v>577681.525001083</v>
       </c>
       <c r="R145" t="n">
-        <v>6944830.597507096</v>
+        <v>6945125.248796649</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17514,7 +17514,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111785242</v>
+        <v>111785237</v>
       </c>
       <c r="B146" t="n">
         <v>96348</v>
@@ -17554,10 +17554,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>577789.7963988667</v>
+        <v>577541.6974019273</v>
       </c>
       <c r="R146" t="n">
-        <v>6944558.818226521</v>
+        <v>6945053.384041801</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17626,10 +17626,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111785196</v>
+        <v>111785213</v>
       </c>
       <c r="B147" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17638,25 +17638,25 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>577807.1996835115</v>
+        <v>577597.0534766318</v>
       </c>
       <c r="R147" t="n">
-        <v>6944602.962691978</v>
+        <v>6945012.333558927</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17738,10 +17738,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111785224</v>
+        <v>111785240</v>
       </c>
       <c r="B148" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17750,25 +17750,25 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -17778,10 +17778,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>577789.1149903627</v>
+        <v>577827.3226169772</v>
       </c>
       <c r="R148" t="n">
-        <v>6944587.805691725</v>
+        <v>6944747.067874849</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17850,10 +17850,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111785210</v>
+        <v>111785194</v>
       </c>
       <c r="B149" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -17862,25 +17862,25 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -17890,10 +17890,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>577699.3262563417</v>
+        <v>577827.9269310302</v>
       </c>
       <c r="R149" t="n">
-        <v>6945152.363841761</v>
+        <v>6944682.172251224</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17962,10 +17962,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111785211</v>
+        <v>111785239</v>
       </c>
       <c r="B150" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17974,25 +17974,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -18002,10 +18002,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>577681.525001083</v>
+        <v>577769.2469415551</v>
       </c>
       <c r="R150" t="n">
-        <v>6945125.248796649</v>
+        <v>6944844.675943938</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -18074,10 +18074,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111785212</v>
+        <v>111785236</v>
       </c>
       <c r="B151" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -18086,25 +18086,25 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -18114,10 +18114,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>577594.6139770675</v>
+        <v>577572.4076091016</v>
       </c>
       <c r="R151" t="n">
-        <v>6945057.386468799</v>
+        <v>6944824.864356839</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -18186,7 +18186,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111785213</v>
+        <v>111785221</v>
       </c>
       <c r="B152" t="n">
         <v>78578</v>
@@ -18226,10 +18226,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>577597.0534766318</v>
+        <v>577882.1692875527</v>
       </c>
       <c r="R152" t="n">
-        <v>6945012.333558927</v>
+        <v>6944590.915173424</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18298,10 +18298,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111785246</v>
+        <v>111785225</v>
       </c>
       <c r="B153" t="n">
-        <v>73634</v>
+        <v>78578</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -18310,25 +18310,25 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>6426</v>
+        <v>6458</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
@@ -18338,10 +18338,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>577818.8902223237</v>
+        <v>577742.0418335226</v>
       </c>
       <c r="R153" t="n">
-        <v>6944791.983443609</v>
+        <v>6944530.994174051</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18410,10 +18410,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111785247</v>
+        <v>111785227</v>
       </c>
       <c r="B154" t="n">
-        <v>89419</v>
+        <v>78578</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18426,21 +18426,21 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
@@ -18450,10 +18450,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>577741.5837880005</v>
+        <v>577609.3004002962</v>
       </c>
       <c r="R154" t="n">
-        <v>6944884.07477704</v>
+        <v>6944686.704950654</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18522,10 +18522,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111785225</v>
+        <v>111785249</v>
       </c>
       <c r="B155" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18538,21 +18538,21 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -18562,10 +18562,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>577742.0418335226</v>
+        <v>577733.3514479286</v>
       </c>
       <c r="R155" t="n">
-        <v>6944530.994174051</v>
+        <v>6944900.913506362</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18634,10 +18634,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111785223</v>
+        <v>111785246</v>
       </c>
       <c r="B156" t="n">
-        <v>78578</v>
+        <v>73634</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18646,25 +18646,25 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>6458</v>
+        <v>6426</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -18674,10 +18674,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>577811.1671387866</v>
+        <v>577818.8902223237</v>
       </c>
       <c r="R156" t="n">
-        <v>6944591.08636965</v>
+        <v>6944791.983443609</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -18746,10 +18746,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111785193</v>
+        <v>111785208</v>
       </c>
       <c r="B157" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -18758,25 +18758,25 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -18786,10 +18786,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>577575.9394238007</v>
+        <v>577539.8790421919</v>
       </c>
       <c r="R157" t="n">
-        <v>6944851.186223409</v>
+        <v>6945032.627663832</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -18858,10 +18858,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111785248</v>
+        <v>111785220</v>
       </c>
       <c r="B158" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -18874,21 +18874,21 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -18898,10 +18898,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>577835.1553672029</v>
+        <v>577929.7593229595</v>
       </c>
       <c r="R158" t="n">
-        <v>6944747.252110518</v>
+        <v>6944625.642482976</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -18970,10 +18970,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111785216</v>
+        <v>111785238</v>
       </c>
       <c r="B159" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -18982,25 +18982,25 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -19010,10 +19010,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>577619.0624429594</v>
+        <v>577598.5769079959</v>
       </c>
       <c r="R159" t="n">
-        <v>6944938.738972194</v>
+        <v>6945065.304574955</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -19082,7 +19082,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111785208</v>
+        <v>111785219</v>
       </c>
       <c r="B160" t="n">
         <v>78578</v>
@@ -19122,10 +19122,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>577539.8790421919</v>
+        <v>577815.6496847487</v>
       </c>
       <c r="R160" t="n">
-        <v>6945032.627663832</v>
+        <v>6944812.162249871</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19194,10 +19194,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111785227</v>
+        <v>111785243</v>
       </c>
       <c r="B161" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -19206,25 +19206,25 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
@@ -19234,10 +19234,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>577609.3004002962</v>
+        <v>577759.6338390541</v>
       </c>
       <c r="R161" t="n">
-        <v>6944686.704950654</v>
+        <v>6944547.520700022</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>

--- a/artfynd/A 53495-2020.xlsx
+++ b/artfynd/A 53495-2020.xlsx
@@ -16506,10 +16506,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111785242</v>
+        <v>111785215</v>
       </c>
       <c r="B137" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16518,25 +16518,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -16546,10 +16546,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>577789.7963988667</v>
+        <v>577573.3984224057</v>
       </c>
       <c r="R137" t="n">
-        <v>6944558.818226521</v>
+        <v>6944998.890149554</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16730,10 +16730,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111785215</v>
+        <v>111785242</v>
       </c>
       <c r="B139" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16742,25 +16742,25 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -16770,10 +16770,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>577573.3984224057</v>
+        <v>577789.7963988667</v>
       </c>
       <c r="R139" t="n">
-        <v>6944998.890149554</v>
+        <v>6944558.818226521</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111785207</v>
+        <v>111785210</v>
       </c>
       <c r="B141" t="n">
         <v>78578</v>
@@ -16994,10 +16994,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>577591.1417373432</v>
+        <v>577699.3262563417</v>
       </c>
       <c r="R141" t="n">
-        <v>6944930.258641767</v>
+        <v>6945152.363841761</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -17066,7 +17066,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111785210</v>
+        <v>111785207</v>
       </c>
       <c r="B142" t="n">
         <v>78578</v>
@@ -17106,10 +17106,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>577699.3262563417</v>
+        <v>577591.1417373432</v>
       </c>
       <c r="R142" t="n">
-        <v>6945152.363841761</v>
+        <v>6944930.258641767</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17178,10 +17178,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111785224</v>
+        <v>111785196</v>
       </c>
       <c r="B143" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17190,25 +17190,25 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -17218,10 +17218,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>577789.1149903627</v>
+        <v>577807.1996835115</v>
       </c>
       <c r="R143" t="n">
-        <v>6944587.805691725</v>
+        <v>6944602.962691978</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17290,10 +17290,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111785196</v>
+        <v>111785224</v>
       </c>
       <c r="B144" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17302,25 +17302,25 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -17330,10 +17330,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>577807.1996835115</v>
+        <v>577789.1149903627</v>
       </c>
       <c r="R144" t="n">
-        <v>6944602.962691978</v>
+        <v>6944587.805691725</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -18634,10 +18634,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111785246</v>
+        <v>111785208</v>
       </c>
       <c r="B156" t="n">
-        <v>73634</v>
+        <v>78578</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18646,25 +18646,25 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>6426</v>
+        <v>6458</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -18674,10 +18674,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>577818.8902223237</v>
+        <v>577539.8790421919</v>
       </c>
       <c r="R156" t="n">
-        <v>6944791.983443609</v>
+        <v>6945032.627663832</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -18746,10 +18746,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111785208</v>
+        <v>111785246</v>
       </c>
       <c r="B157" t="n">
-        <v>78578</v>
+        <v>73634</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -18758,25 +18758,25 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>6458</v>
+        <v>6426</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -18786,10 +18786,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>577539.8790421919</v>
+        <v>577818.8902223237</v>
       </c>
       <c r="R157" t="n">
-        <v>6945032.627663832</v>
+        <v>6944791.983443609</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>

--- a/artfynd/A 53495-2020.xlsx
+++ b/artfynd/A 53495-2020.xlsx
@@ -15386,10 +15386,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111785195</v>
+        <v>111785238</v>
       </c>
       <c r="B127" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15398,25 +15398,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>577817.9552042313</v>
+        <v>577599</v>
       </c>
       <c r="R127" t="n">
-        <v>6944616.105901928</v>
+        <v>6945065</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -15459,19 +15459,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z127" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA127" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB127" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD127" t="b">
@@ -15498,7 +15488,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>111785209</v>
+        <v>111785223</v>
       </c>
       <c r="B128" t="n">
         <v>78578</v>
@@ -15538,10 +15528,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>577708.845606568</v>
+        <v>577811</v>
       </c>
       <c r="R128" t="n">
-        <v>6945178.823951898</v>
+        <v>6944591</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -15571,19 +15561,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z128" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA128" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB128" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD128" t="b">
@@ -15610,7 +15590,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111785222</v>
+        <v>111785216</v>
       </c>
       <c r="B129" t="n">
         <v>78578</v>
@@ -15650,10 +15630,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>577817.9552042313</v>
+        <v>577619</v>
       </c>
       <c r="R129" t="n">
-        <v>6944616.105901928</v>
+        <v>6944939</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -15683,19 +15663,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z129" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA129" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB129" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD129" t="b">
@@ -15722,7 +15692,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>111785223</v>
+        <v>111785222</v>
       </c>
       <c r="B130" t="n">
         <v>78578</v>
@@ -15762,10 +15732,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>577811.1671387866</v>
+        <v>577818</v>
       </c>
       <c r="R130" t="n">
-        <v>6944591.08636965</v>
+        <v>6944616</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -15795,19 +15765,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z130" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA130" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB130" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD130" t="b">
@@ -15834,10 +15794,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111785241</v>
+        <v>111785215</v>
       </c>
       <c r="B131" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15846,25 +15806,25 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -15874,10 +15834,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>577823.0208926643</v>
+        <v>577573</v>
       </c>
       <c r="R131" t="n">
-        <v>6944675.151490607</v>
+        <v>6944999</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -15907,19 +15867,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z131" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA131" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB131" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD131" t="b">
@@ -15946,10 +15896,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111785248</v>
+        <v>111785227</v>
       </c>
       <c r="B132" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15962,21 +15912,21 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -15986,10 +15936,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>577835.1553672029</v>
+        <v>577609</v>
       </c>
       <c r="R132" t="n">
-        <v>6944747.252110518</v>
+        <v>6944687</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -16019,19 +15969,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z132" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA132" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB132" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD132" t="b">
@@ -16058,10 +15998,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>111785218</v>
+        <v>111785196</v>
       </c>
       <c r="B133" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -16070,25 +16010,25 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -16098,10 +16038,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>577777.4147107385</v>
+        <v>577807</v>
       </c>
       <c r="R133" t="n">
-        <v>6944830.597507096</v>
+        <v>6944603</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -16131,19 +16071,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z133" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA133" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB133" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD133" t="b">
@@ -16170,7 +16100,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>111785193</v>
+        <v>111785194</v>
       </c>
       <c r="B134" t="n">
         <v>78605</v>
@@ -16210,10 +16140,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>577575.9394238007</v>
+        <v>577828</v>
       </c>
       <c r="R134" t="n">
-        <v>6944851.186223409</v>
+        <v>6944682</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -16243,19 +16173,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z134" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA134" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB134" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD134" t="b">
@@ -16282,10 +16202,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>111785212</v>
+        <v>111785195</v>
       </c>
       <c r="B135" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -16294,25 +16214,25 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -16322,10 +16242,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>577594.6139770675</v>
+        <v>577818</v>
       </c>
       <c r="R135" t="n">
-        <v>6945057.386468799</v>
+        <v>6944616</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -16355,19 +16275,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z135" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA135" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB135" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD135" t="b">
@@ -16394,10 +16304,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>111785226</v>
+        <v>111785243</v>
       </c>
       <c r="B136" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -16406,25 +16316,25 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -16434,10 +16344,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>577680.815564253</v>
+        <v>577760</v>
       </c>
       <c r="R136" t="n">
-        <v>6944566.386431335</v>
+        <v>6944548</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -16467,19 +16377,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z136" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA136" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB136" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD136" t="b">
@@ -16506,7 +16406,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111785215</v>
+        <v>111785209</v>
       </c>
       <c r="B137" t="n">
         <v>78578</v>
@@ -16546,10 +16446,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>577573.3984224057</v>
+        <v>577709</v>
       </c>
       <c r="R137" t="n">
-        <v>6944998.890149554</v>
+        <v>6945179</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -16579,19 +16479,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z137" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA137" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB137" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD137" t="b">
@@ -16618,7 +16508,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111785216</v>
+        <v>111785221</v>
       </c>
       <c r="B138" t="n">
         <v>78578</v>
@@ -16658,10 +16548,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>577619.0624429594</v>
+        <v>577882</v>
       </c>
       <c r="R138" t="n">
-        <v>6944938.738972194</v>
+        <v>6944591</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -16691,19 +16581,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z138" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA138" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB138" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD138" t="b">
@@ -16730,10 +16610,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>111785242</v>
+        <v>111785220</v>
       </c>
       <c r="B139" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16742,25 +16622,25 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -16770,10 +16650,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>577789.7963988667</v>
+        <v>577930</v>
       </c>
       <c r="R139" t="n">
-        <v>6944558.818226521</v>
+        <v>6944626</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -16803,19 +16683,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z139" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA139" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB139" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD139" t="b">
@@ -16842,10 +16712,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111785247</v>
+        <v>111785241</v>
       </c>
       <c r="B140" t="n">
-        <v>89419</v>
+        <v>96348</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16854,25 +16724,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1204</v>
+        <v>220787</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16882,10 +16752,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>577741.5837880005</v>
+        <v>577823</v>
       </c>
       <c r="R140" t="n">
-        <v>6944884.07477704</v>
+        <v>6944675</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -16915,19 +16785,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z140" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA140" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB140" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD140" t="b">
@@ -16954,7 +16814,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>111785210</v>
+        <v>111785211</v>
       </c>
       <c r="B141" t="n">
         <v>78578</v>
@@ -16994,10 +16854,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>577699.3262563417</v>
+        <v>577682</v>
       </c>
       <c r="R141" t="n">
-        <v>6945152.363841761</v>
+        <v>6945125</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -17027,19 +16887,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z141" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA141" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB141" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD141" t="b">
@@ -17066,10 +16916,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>111785207</v>
+        <v>111785240</v>
       </c>
       <c r="B142" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -17078,25 +16928,25 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -17106,10 +16956,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>577591.1417373432</v>
+        <v>577827</v>
       </c>
       <c r="R142" t="n">
-        <v>6944930.258641767</v>
+        <v>6944747</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -17139,19 +16989,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z142" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA142" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB142" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD142" t="b">
@@ -17178,10 +17018,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>111785196</v>
+        <v>111785236</v>
       </c>
       <c r="B143" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -17190,25 +17030,25 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -17218,10 +17058,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>577807.1996835115</v>
+        <v>577572</v>
       </c>
       <c r="R143" t="n">
-        <v>6944602.962691978</v>
+        <v>6944825</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -17251,19 +17091,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z143" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA143" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB143" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD143" t="b">
@@ -17290,7 +17120,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111785224</v>
+        <v>111785213</v>
       </c>
       <c r="B144" t="n">
         <v>78578</v>
@@ -17330,10 +17160,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>577789.1149903627</v>
+        <v>577597</v>
       </c>
       <c r="R144" t="n">
-        <v>6944587.805691725</v>
+        <v>6945012</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -17363,19 +17193,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z144" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA144" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB144" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD144" t="b">
@@ -17402,7 +17222,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111785211</v>
+        <v>111785226</v>
       </c>
       <c r="B145" t="n">
         <v>78578</v>
@@ -17442,10 +17262,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>577681.525001083</v>
+        <v>577681</v>
       </c>
       <c r="R145" t="n">
-        <v>6945125.248796649</v>
+        <v>6944566</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -17475,19 +17295,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z145" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA145" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB145" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD145" t="b">
@@ -17514,7 +17324,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111785237</v>
+        <v>111785239</v>
       </c>
       <c r="B146" t="n">
         <v>96348</v>
@@ -17554,10 +17364,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>577541.6974019273</v>
+        <v>577769</v>
       </c>
       <c r="R146" t="n">
-        <v>6945053.384041801</v>
+        <v>6944845</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -17587,19 +17397,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z146" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA146" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB146" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD146" t="b">
@@ -17626,10 +17426,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111785213</v>
+        <v>111785246</v>
       </c>
       <c r="B147" t="n">
-        <v>78578</v>
+        <v>73634</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -17638,25 +17438,25 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>6458</v>
+        <v>6426</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -17666,10 +17466,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>577597.0534766318</v>
+        <v>577819</v>
       </c>
       <c r="R147" t="n">
-        <v>6945012.333558927</v>
+        <v>6944792</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -17699,19 +17499,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z147" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA147" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB147" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD147" t="b">
@@ -17738,10 +17528,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111785240</v>
+        <v>111785248</v>
       </c>
       <c r="B148" t="n">
-        <v>96348</v>
+        <v>89423</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17750,25 +17540,25 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -17778,10 +17568,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>577827.3226169772</v>
+        <v>577835</v>
       </c>
       <c r="R148" t="n">
-        <v>6944747.067874849</v>
+        <v>6944747</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -17811,19 +17601,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z148" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA148" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB148" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD148" t="b">
@@ -17850,10 +17630,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>111785194</v>
+        <v>111785242</v>
       </c>
       <c r="B149" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -17862,25 +17642,25 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -17890,10 +17670,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>577827.9269310302</v>
+        <v>577790</v>
       </c>
       <c r="R149" t="n">
-        <v>6944682.172251224</v>
+        <v>6944559</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -17923,19 +17703,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z149" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA149" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB149" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD149" t="b">
@@ -17962,10 +17732,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>111785239</v>
+        <v>111785218</v>
       </c>
       <c r="B150" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17974,25 +17744,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -18002,10 +17772,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>577769.2469415551</v>
+        <v>577777</v>
       </c>
       <c r="R150" t="n">
-        <v>6944844.675943938</v>
+        <v>6944831</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -18035,19 +17805,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z150" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA150" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB150" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD150" t="b">
@@ -18074,10 +17834,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111785236</v>
+        <v>111785207</v>
       </c>
       <c r="B151" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -18086,25 +17846,25 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -18114,10 +17874,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>577572.4076091016</v>
+        <v>577591</v>
       </c>
       <c r="R151" t="n">
-        <v>6944824.864356839</v>
+        <v>6944930</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -18147,19 +17907,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z151" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA151" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB151" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD151" t="b">
@@ -18186,10 +17936,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111785221</v>
+        <v>111785247</v>
       </c>
       <c r="B152" t="n">
-        <v>78578</v>
+        <v>89419</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -18202,21 +17952,21 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -18226,10 +17976,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>577882.1692875527</v>
+        <v>577742</v>
       </c>
       <c r="R152" t="n">
-        <v>6944590.915173424</v>
+        <v>6944884</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18259,19 +18009,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z152" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA152" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB152" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD152" t="b">
@@ -18298,7 +18038,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111785225</v>
+        <v>111785219</v>
       </c>
       <c r="B153" t="n">
         <v>78578</v>
@@ -18338,10 +18078,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>577742.0418335226</v>
+        <v>577816</v>
       </c>
       <c r="R153" t="n">
-        <v>6944530.994174051</v>
+        <v>6944812</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18371,19 +18111,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z153" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA153" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB153" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD153" t="b">
@@ -18410,7 +18140,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111785227</v>
+        <v>111785208</v>
       </c>
       <c r="B154" t="n">
         <v>78578</v>
@@ -18450,10 +18180,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>577609.3004002962</v>
+        <v>577540</v>
       </c>
       <c r="R154" t="n">
-        <v>6944686.704950654</v>
+        <v>6945033</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18483,19 +18213,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z154" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA154" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB154" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD154" t="b">
@@ -18522,10 +18242,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111785249</v>
+        <v>111785224</v>
       </c>
       <c r="B155" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18538,21 +18258,21 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -18562,10 +18282,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>577733.3514479286</v>
+        <v>577789</v>
       </c>
       <c r="R155" t="n">
-        <v>6944900.913506362</v>
+        <v>6944588</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18595,19 +18315,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z155" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA155" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB155" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD155" t="b">
@@ -18634,7 +18344,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111785208</v>
+        <v>111785225</v>
       </c>
       <c r="B156" t="n">
         <v>78578</v>
@@ -18674,10 +18384,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>577539.8790421919</v>
+        <v>577742</v>
       </c>
       <c r="R156" t="n">
-        <v>6945032.627663832</v>
+        <v>6944531</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -18707,19 +18417,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z156" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA156" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB156" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD156" t="b">
@@ -18746,10 +18446,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111785246</v>
+        <v>111785249</v>
       </c>
       <c r="B157" t="n">
-        <v>73634</v>
+        <v>77515</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -18758,25 +18458,25 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>6426</v>
+        <v>6425</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -18786,10 +18486,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>577818.8902223237</v>
+        <v>577733</v>
       </c>
       <c r="R157" t="n">
-        <v>6944791.983443609</v>
+        <v>6944901</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -18819,19 +18519,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z157" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA157" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB157" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD157" t="b">
@@ -18858,7 +18548,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111785220</v>
+        <v>111785212</v>
       </c>
       <c r="B158" t="n">
         <v>78578</v>
@@ -18898,10 +18588,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>577929.7593229595</v>
+        <v>577595</v>
       </c>
       <c r="R158" t="n">
-        <v>6944625.642482976</v>
+        <v>6945057</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -18931,19 +18621,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z158" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA158" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB158" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD158" t="b">
@@ -18970,10 +18650,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111785238</v>
+        <v>111785210</v>
       </c>
       <c r="B159" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -18982,25 +18662,25 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -19010,10 +18690,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>577598.5769079959</v>
+        <v>577699</v>
       </c>
       <c r="R159" t="n">
-        <v>6945065.304574955</v>
+        <v>6945152</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -19043,19 +18723,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z159" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA159" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB159" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD159" t="b">
@@ -19082,10 +18752,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>111785219</v>
+        <v>111785193</v>
       </c>
       <c r="B160" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -19094,25 +18764,25 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -19122,10 +18792,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>577815.6496847487</v>
+        <v>577576</v>
       </c>
       <c r="R160" t="n">
-        <v>6944812.162249871</v>
+        <v>6944851</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -19155,19 +18825,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z160" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA160" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB160" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD160" t="b">
@@ -19194,7 +18854,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111785243</v>
+        <v>111785237</v>
       </c>
       <c r="B161" t="n">
         <v>96348</v>
@@ -19234,10 +18894,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>577759.6338390541</v>
+        <v>577542</v>
       </c>
       <c r="R161" t="n">
-        <v>6944547.520700022</v>
+        <v>6945053</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>
@@ -19267,19 +18927,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z161" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA161" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB161" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD161" t="b">
